--- a/data/hotels_by_city/Houston/Houston_shard_46.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_46.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="468">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56351-d1382896-Reviews-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
   </si>
   <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Best-Western-Plus-New-Caney-Inn-Suites.h2551259.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1298 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r583494354-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>56351</t>
+  </si>
+  <si>
+    <t>1382896</t>
+  </si>
+  <si>
+    <t>583494354</t>
+  </si>
+  <si>
+    <t>05/28/2018</t>
+  </si>
+  <si>
+    <t>Graduation stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Went for my son's HS graduation ceremony. Very nice, breakfast was good, room was good, good location for the area i needed to be in. I would use this hotel again. Parking was a tad bit small. Pool and Fitness center were nice. </t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r573146929-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>573146929</t>
+  </si>
+  <si>
+    <t>04/13/2018</t>
+  </si>
+  <si>
+    <t>Working vacation</t>
+  </si>
+  <si>
+    <t>I travel a lot in the Houston area in Best Western New Caney is one of the places I like to stay I feel safe there the rooms are nice and comfortable the staff is fantastic and it's in a great location to where I'm working MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Billy P, General Manager at Best Western Plus New Caney Inn &amp; Suites, responded to this reviewResponded April 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 18, 2018</t>
+  </si>
+  <si>
+    <t>I travel a lot in the Houston area in Best Western New Caney is one of the places I like to stay I feel safe there the rooms are nice and comfortable the staff is fantastic and it's in a great location to where I'm working More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r565723391-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>565723391</t>
+  </si>
+  <si>
+    <t>03/10/2018</t>
+  </si>
+  <si>
+    <t>Clean and comfortable beds.</t>
+  </si>
+  <si>
+    <t>Clean,  rooms, comfortable beds, good hot breakfast. Located by a mall. Only bad thing was figuring out how to get to the property. Roads in are confusing! Other wise everything else was very good. Would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Billy P, General Manager at Best Western Plus New Caney Inn &amp; Suites, responded to this reviewResponded March 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2018</t>
+  </si>
+  <si>
+    <t>Clean,  rooms, comfortable beds, good hot breakfast. Located by a mall. Only bad thing was figuring out how to get to the property. Roads in are confusing! Other wise everything else was very good. Would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r547709392-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>547709392</t>
+  </si>
+  <si>
+    <t>12/17/2017</t>
+  </si>
+  <si>
+    <t>Long turn stay</t>
+  </si>
+  <si>
+    <t>This best Western is the best hotel I've stayed at in 2 years.. management and staff are helpful.. And this is absolute the cleanest hotel ever... Thank you Cathy for taking such good care of us in our time off need..MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Billy P, Manager at Best Western Plus New Caney Inn &amp; Suites, responded to this reviewResponded December 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 20, 2017</t>
+  </si>
+  <si>
+    <t>This best Western is the best hotel I've stayed at in 2 years.. management and staff are helpful.. And this is absolute the cleanest hotel ever... Thank you Cathy for taking such good care of us in our time off need..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r544150116-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>544150116</t>
+  </si>
+  <si>
+    <t>11/29/2017</t>
+  </si>
+  <si>
+    <t>This Hotel rocks and the staff rocks!</t>
+  </si>
+  <si>
+    <t>I have had to evacuate my home twice in 1.5 years due to flooding. This hotel and the staff have literally saved my life and sanity. This is my home away from home and I appreciate them greatly!  They love and accept my dogs, and are extremely attentive to my needs. They have worked with me and FEMA on my various stays and have made my situation much more bearable.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Billy P, General Manager at Best Western Plus New Caney Inn &amp; Suites, responded to this reviewResponded December 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 1, 2017</t>
+  </si>
+  <si>
+    <t>I have had to evacuate my home twice in 1.5 years due to flooding. This hotel and the staff have literally saved my life and sanity. This is my home away from home and I appreciate them greatly!  They love and accept my dogs, and are extremely attentive to my needs. They have worked with me and FEMA on my various stays and have made my situation much more bearable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r543460327-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>543460327</t>
+  </si>
+  <si>
+    <t>11/26/2017</t>
+  </si>
+  <si>
+    <t>Pre-cruise stay for family of 15</t>
+  </si>
+  <si>
+    <t>Our extended family of 15 stayed here for one night after our previously scheduled hotel canceled our reservations due to housing of Hurricane Harvey victims. We had 4 rooms total (8 adults, 7 kids ranging in age from 5-12) and this hotel met our needs. We didn't utilize the pool or workout room. We did enjoy the breakfast prior to driving to Galveston for our cruise departure. In summary, it was a sufficient hotel with no real bells or whistles but it was clean and safe and if the need arose again, there would be nothing stopping us from staying here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Billy P, General Manager at Best Western Plus New Caney Inn &amp; Suites, responded to this reviewResponded November 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 27, 2017</t>
+  </si>
+  <si>
+    <t>Our extended family of 15 stayed here for one night after our previously scheduled hotel canceled our reservations due to housing of Hurricane Harvey victims. We had 4 rooms total (8 adults, 7 kids ranging in age from 5-12) and this hotel met our needs. We didn't utilize the pool or workout room. We did enjoy the breakfast prior to driving to Galveston for our cruise departure. In summary, it was a sufficient hotel with no real bells or whistles but it was clean and safe and if the need arose again, there would be nothing stopping us from staying here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r535942807-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>535942807</t>
+  </si>
+  <si>
+    <t>10/25/2017</t>
+  </si>
+  <si>
+    <t>Excellent Staff!</t>
+  </si>
+  <si>
+    <t>We stayed here after our home was destroyed by Hurricane Harvey. We were here almost 2 months The staff Karen, Kim and Billy went out of their way to accommodate us and many others. It was clean and the staff friendly..would recommend to anyone! MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Billy P, Manager at Best Western Plus New Caney Inn &amp; Suites, responded to this reviewResponded October 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 29, 2017</t>
+  </si>
+  <si>
+    <t>We stayed here after our home was destroyed by Hurricane Harvey. We were here almost 2 months The staff Karen, Kim and Billy went out of their way to accommodate us and many others. It was clean and the staff friendly..would recommend to anyone! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r536078922-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>536078922</t>
+  </si>
+  <si>
+    <t>Nice inexpensive hotel with a few challenges</t>
+  </si>
+  <si>
+    <t>Hotel and room was clean and well maintained.  Full breakfast offered a good variety of choices.  Staff was friendly and helpful. There were some challenges.  This is a non-smoking hotel, but not all guests cooperate with that.  The result can be a room that has lingering cigarette odor despite the best efforts of the housekeeping staff (and they really did try).  WiFi was good when it worked, but was frequently unavailable until someone could be found to reset the equipment.  Parking capacity is inadequate when room occupancy is high.  Hot water in lavatory must run quite a long time before it gets any hotter than lukewarm.  The business center computer has two work rooms, but only one of them has a computer.  The computer is running an obsolete version of Windows on fairly old hardware.MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel and room was clean and well maintained.  Full breakfast offered a good variety of choices.  Staff was friendly and helpful. There were some challenges.  This is a non-smoking hotel, but not all guests cooperate with that.  The result can be a room that has lingering cigarette odor despite the best efforts of the housekeeping staff (and they really did try).  WiFi was good when it worked, but was frequently unavailable until someone could be found to reset the equipment.  Parking capacity is inadequate when room occupancy is high.  Hot water in lavatory must run quite a long time before it gets any hotter than lukewarm.  The business center computer has two work rooms, but only one of them has a computer.  The computer is running an obsolete version of Windows on fairly old hardware.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r531954208-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>531954208</t>
+  </si>
+  <si>
+    <t>10/11/2017</t>
+  </si>
+  <si>
+    <t>Quiet rooms with nice decor. A little difficult to get to as you have to drive through another hotels parking lot to get to this hotel. Staff was helpful when explaining the breakfast hours and I told them I would be leaving 2 hours before the start of breakfast they made a grab and go bag for me which was very nice. Nothing close by for meals but within a 10-15 minute drive for fast food or about 20 minutes for nicer dining. One downside was the shower head which pointed straight down from about 7 feet overhead and 2 feet from the front of the tub.MoreShow less</t>
+  </si>
+  <si>
+    <t>Billy P, General Manager at Best Western Plus New Caney Inn &amp; Suites, responded to this reviewResponded October 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 12, 2017</t>
+  </si>
+  <si>
+    <t>Quiet rooms with nice decor. A little difficult to get to as you have to drive through another hotels parking lot to get to this hotel. Staff was helpful when explaining the breakfast hours and I told them I would be leaving 2 hours before the start of breakfast they made a grab and go bag for me which was very nice. Nothing close by for meals but within a 10-15 minute drive for fast food or about 20 minutes for nicer dining. One downside was the shower head which pointed straight down from about 7 feet overhead and 2 feet from the front of the tub.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r510960109-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>510960109</t>
+  </si>
+  <si>
+    <t>08/10/2017</t>
+  </si>
+  <si>
+    <t>Great people friendly staff</t>
+  </si>
+  <si>
+    <t>I stayed three days and Karen Mobley was the person that made me feel at home.  She is the friendliest person I have ever ruin into at any hotel.  I would recommend staying just so you get to meet her.  overall a gest stayMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Billy P, Manager at Best Western Plus New Caney Inn &amp; Suites, responded to this reviewResponded August 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 11, 2017</t>
+  </si>
+  <si>
+    <t>I stayed three days and Karen Mobley was the person that made me feel at home.  She is the friendliest person I have ever ruin into at any hotel.  I would recommend staying just so you get to meet her.  overall a gest stayMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r509316198-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>509316198</t>
+  </si>
+  <si>
+    <t>08/06/2017</t>
+  </si>
+  <si>
+    <t>One of the Best I have stayed at.</t>
+  </si>
+  <si>
+    <t>This Best western was in an awesome location. It was quiet and literally amazing. When I arrived the lady that checked me in was so sweet and made sure that I was at home. The set up here was beautiful. The lobby layout was awesome. The rooms were comfy and well designed, but the beds were to die for best beds at any Best Western that I have ever stayed at. Breakfast was the usual awesomeness like most Best Westerns with anything you could possibly want to eat. They had a swimming pool, exercise room, and just about anything else you could want and or need. They even had guest laundry. I recommend this Best Western to anyone I. The area that wants the high quality of a professional hotel. Thanks Best Western for an amazing experience with friendly faces.MoreShow less</t>
+  </si>
+  <si>
+    <t>Billy P, General Manager at Best Western Plus New Caney Inn &amp; Suites, responded to this reviewResponded August 11, 2017</t>
+  </si>
+  <si>
+    <t>This Best western was in an awesome location. It was quiet and literally amazing. When I arrived the lady that checked me in was so sweet and made sure that I was at home. The set up here was beautiful. The lobby layout was awesome. The rooms were comfy and well designed, but the beds were to die for best beds at any Best Western that I have ever stayed at. Breakfast was the usual awesomeness like most Best Westerns with anything you could possibly want to eat. They had a swimming pool, exercise room, and just about anything else you could want and or need. They even had guest laundry. I recommend this Best Western to anyone I. The area that wants the high quality of a professional hotel. Thanks Best Western for an amazing experience with friendly faces.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r508609889-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>508609889</t>
+  </si>
+  <si>
+    <t>08/03/2017</t>
+  </si>
+  <si>
+    <t>Excellent choice /value</t>
+  </si>
+  <si>
+    <t>This Best Western PLUS was a great find.   Room looked great, and property is well maintained. Surprised to get this quality experience for such a reasonable rate.  Only wish pool was opened before 10am to take full advantage.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>This Best Western PLUS was a great find.   Room looked great, and property is well maintained. Surprised to get this quality experience for such a reasonable rate.  Only wish pool was opened before 10am to take full advantage.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r482928613-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>482928613</t>
+  </si>
+  <si>
+    <t>05/08/2017</t>
+  </si>
+  <si>
+    <t>Great Choice</t>
+  </si>
+  <si>
+    <t>Hotel was clean and staff was very friendly.  The bed was comfortable and the breakfast was excellent.  Lots of choices and very filling.  Loved the waffle maker and the bacon was excellent. Towels were big and fluffy and the shower had a wonderful big shower head and great water pressure.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r482344603-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>482344603</t>
+  </si>
+  <si>
+    <t>05/07/2017</t>
+  </si>
+  <si>
+    <t>Great sleepover!</t>
+  </si>
+  <si>
+    <t>We stopped in on our way to Galveston. This place is the last stand of the place my wife n I used to call home. The area is growing so fast and the lil things we used to love n cherish as well as the people are changing. Best Western New Caney TX and Billy's team are now our family n our home away from home. MoreShow less</t>
+  </si>
+  <si>
+    <t>Billy p, General Manager at Best Western Plus New Caney Inn &amp; Suites, responded to this reviewResponded May 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2017</t>
+  </si>
+  <si>
+    <t>We stopped in on our way to Galveston. This place is the last stand of the place my wife n I used to call home. The area is growing so fast and the lil things we used to love n cherish as well as the people are changing. Best Western New Caney TX and Billy's team are now our family n our home away from home. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r482112703-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>482112703</t>
+  </si>
+  <si>
+    <t>05/06/2017</t>
+  </si>
+  <si>
+    <t>Wake Up House Cleaning Staff!</t>
+  </si>
+  <si>
+    <t>The room was in good condition and the A/C worked great.  In this day and age I'm puzzled why their TV programming is not HD.  The signal coming in was, but for some reason the tv wasn't set up to use that signal.  Biggest issue this stay was used soap both by the sink and in the shower.  What the hell?! Oh, and a half empty water bottle by the bed.  Terrible.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>The room was in good condition and the A/C worked great.  In this day and age I'm puzzled why their TV programming is not HD.  The signal coming in was, but for some reason the tv wasn't set up to use that signal.  Biggest issue this stay was used soap both by the sink and in the shower.  What the hell?! Oh, and a half empty water bottle by the bed.  Terrible.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r466459772-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>466459772</t>
+  </si>
+  <si>
+    <t>03/12/2017</t>
+  </si>
+  <si>
+    <t>Nice Stay in BW</t>
+  </si>
+  <si>
+    <t>My wife and I recently stayed here in preparation for an interview she was a part of nearby.  
+The inn is a little tricky to access due to ongoing construction just off of US 59/69 and the new Grand Parkway intersection.  We saw the LaQuinta, and had to double back to find it, as it sits next door.  The property appeared new and was nicely decorated.  We arrived late (10 PM) and were greated and treated kindly.  Our room was on the second floor away from the highway.  The thing we noticed was that the ceilings were very high throughout the property, and the room was larger than most places of similar rating in which we have stayed.  The bed was very comfortable, we had plenty of hot water in the bath, along with nice towels.  The room, as well as the rest of the property, was very clean. We did find the noise level a little higher than we expected - hearing a lot of slamming doors and a nearby train several times during the night.  It reminded me a little of the movie "My Cousin Vinny" when I heard the train for the second time. There was ample parking, and the location felt very secure, though a little difficult to locate.
+We found the breakfast decent, with pre-cooked eggs, tasty link sausage, biscuits and gravy, and do-it-yourself waffles.  The breakfast area was not crowded during our stay, and...My wife and I recently stayed here in preparation for an interview she was a part of nearby.  The inn is a little tricky to access due to ongoing construction just off of US 59/69 and the new Grand Parkway intersection.  We saw the LaQuinta, and had to double back to find it, as it sits next door.  The property appeared new and was nicely decorated.  We arrived late (10 PM) and were greated and treated kindly.  Our room was on the second floor away from the highway.  The thing we noticed was that the ceilings were very high throughout the property, and the room was larger than most places of similar rating in which we have stayed.  The bed was very comfortable, we had plenty of hot water in the bath, along with nice towels.  The room, as well as the rest of the property, was very clean. We did find the noise level a little higher than we expected - hearing a lot of slamming doors and a nearby train several times during the night.  It reminded me a little of the movie "My Cousin Vinny" when I heard the train for the second time. There was ample parking, and the location felt very secure, though a little difficult to locate.We found the breakfast decent, with pre-cooked eggs, tasty link sausage, biscuits and gravy, and do-it-yourself waffles.  The breakfast area was not crowded during our stay, and there was ample food to sample.  While the nearby development is still mostly under construction, we did catch a bite at the Panda Express, and also noticed a Chili's restaurant too.  There is shopping in the new center just across 59.We were a little put off by the noise level, but the hotel is a nicely built property with a friendly and efficient staff. Breakfast was average in quality and we felt safe. It was very convenient to my wife's interview in this growing area. We would likely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>My wife and I recently stayed here in preparation for an interview she was a part of nearby.  
+The inn is a little tricky to access due to ongoing construction just off of US 59/69 and the new Grand Parkway intersection.  We saw the LaQuinta, and had to double back to find it, as it sits next door.  The property appeared new and was nicely decorated.  We arrived late (10 PM) and were greated and treated kindly.  Our room was on the second floor away from the highway.  The thing we noticed was that the ceilings were very high throughout the property, and the room was larger than most places of similar rating in which we have stayed.  The bed was very comfortable, we had plenty of hot water in the bath, along with nice towels.  The room, as well as the rest of the property, was very clean. We did find the noise level a little higher than we expected - hearing a lot of slamming doors and a nearby train several times during the night.  It reminded me a little of the movie "My Cousin Vinny" when I heard the train for the second time. There was ample parking, and the location felt very secure, though a little difficult to locate.
+We found the breakfast decent, with pre-cooked eggs, tasty link sausage, biscuits and gravy, and do-it-yourself waffles.  The breakfast area was not crowded during our stay, and...My wife and I recently stayed here in preparation for an interview she was a part of nearby.  The inn is a little tricky to access due to ongoing construction just off of US 59/69 and the new Grand Parkway intersection.  We saw the LaQuinta, and had to double back to find it, as it sits next door.  The property appeared new and was nicely decorated.  We arrived late (10 PM) and were greated and treated kindly.  Our room was on the second floor away from the highway.  The thing we noticed was that the ceilings were very high throughout the property, and the room was larger than most places of similar rating in which we have stayed.  The bed was very comfortable, we had plenty of hot water in the bath, along with nice towels.  The room, as well as the rest of the property, was very clean. We did find the noise level a little higher than we expected - hearing a lot of slamming doors and a nearby train several times during the night.  It reminded me a little of the movie "My Cousin Vinny" when I heard the train for the second time. There was ample parking, and the location felt very secure, though a little difficult to locate.We found the breakfast decent, with pre-cooked eggs, tasty link sausage, biscuits and gravy, and do-it-yourself waffles.  The breakfast area was not crowded during our stay, and there was ample food to sample.  While the nearby development is still mostly under construction, we did catch a bite at the Panda Express, and also noticed a Chili's restaurant too.  There is shopping in the new center just across 59.We were a little put off by the noise level, but the hotel is a nicely built property with a friendly and efficient staff. Breakfast was average in quality and we felt safe. It was very convenient to my wife's interview in this growing area. We would likely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r466202886-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>466202886</t>
+  </si>
+  <si>
+    <t>03/10/2017</t>
+  </si>
+  <si>
+    <t>good enough</t>
+  </si>
+  <si>
+    <t>Our stay was fine. Its best to book on-line when possible as you will get a cheaper rate, this was a last minute decision to pull over in the middle of the night rather than continue the last couple hours home. Personally I think the rate you pay as a walk-in is too high, but I paid it. I guess people like me will keep those rates where they're at, lol.   Room and bed was comfy, shower was broken, not an issue for us as we were so close to home didn't care if we all got showered before we left, staff was ready to take care of it for us while we were there but asked them to worry about it after we left. Everyone we encountered was helpful and professional.MoreShow less</t>
+  </si>
+  <si>
+    <t>Our stay was fine. Its best to book on-line when possible as you will get a cheaper rate, this was a last minute decision to pull over in the middle of the night rather than continue the last couple hours home. Personally I think the rate you pay as a walk-in is too high, but I paid it. I guess people like me will keep those rates where they're at, lol.   Room and bed was comfy, shower was broken, not an issue for us as we were so close to home didn't care if we all got showered before we left, staff was ready to take care of it for us while we were there but asked them to worry about it after we left. Everyone we encountered was helpful and professional.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r461891911-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>461891911</t>
+  </si>
+  <si>
+    <t>02/21/2017</t>
+  </si>
+  <si>
+    <t>Good location for access to freeways</t>
+  </si>
+  <si>
+    <t>Nice, clean, new and well operated.  Nothing fancy but nice and clean and seemingly secure.  A wide choice of restaurants are near but none within walking distance.  I would stay there again.  This was a last minute booking and I was pleased with the value and staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Billy p, General Manager at Best Western Plus New Caney Inn &amp; Suites, responded to this reviewResponded February 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 26, 2017</t>
+  </si>
+  <si>
+    <t>Nice, clean, new and well operated.  Nothing fancy but nice and clean and seemingly secure.  A wide choice of restaurants are near but none within walking distance.  I would stay there again.  This was a last minute booking and I was pleased with the value and staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r429047908-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>429047908</t>
+  </si>
+  <si>
+    <t>10/17/2016</t>
+  </si>
+  <si>
+    <t>Good Hotel</t>
+  </si>
+  <si>
+    <t>Good price, clean hotel and rooms!  Enjoyed our stay. The staff was very kind and helpful.  Only had one minor problem during our stay and it was probably because of a new employee.  This was our second stay here and we willl be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Billy p, General Manager at Best Western Plus New Caney Inn &amp; Suites, responded to this reviewResponded October 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2016</t>
+  </si>
+  <si>
+    <t>Good price, clean hotel and rooms!  Enjoyed our stay. The staff was very kind and helpful.  Only had one minor problem during our stay and it was probably because of a new employee.  This was our second stay here and we willl be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r428318352-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>428318352</t>
+  </si>
+  <si>
+    <t>10/14/2016</t>
+  </si>
+  <si>
+    <t>The best hotel in Texas!</t>
+  </si>
+  <si>
+    <t>I love staying at this hotel, staff is super nice and rooms are very clean! From check in to check out always treated with respect and hospitality. Highly recommend this hotel to anyone travelling through the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>I love staying at this hotel, staff is super nice and rooms are very clean! From check in to check out always treated with respect and hospitality. Highly recommend this hotel to anyone travelling through the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r418649824-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>418649824</t>
+  </si>
+  <si>
+    <t>09/14/2016</t>
+  </si>
+  <si>
+    <t>Good pet hotel if you like smell and like to be licked</t>
+  </si>
+  <si>
+    <t>First of all the smoke free hotel has a smoking pit next to entry door that forces non smokers to enter non smoking hotel through a cloud of smoke.  Employees were smokers.  Secondly, our room was not cleaned the second night we were there which is okay.  Thirdly but most importantly pets jumped up and licked me in elevator.  The smell was horrible, I thought I was going to throw up in the elevator.  When I told desk clerk, called 800 number and spoke to general manager, no apology, no correction and no refund offered. "This is a pet friendly hotel." was the pat answer.  So pets and smoking are more important than guests.  Pit bulls, smelly dogs in elevator...jumping and licking REALLY!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>First of all the smoke free hotel has a smoking pit next to entry door that forces non smokers to enter non smoking hotel through a cloud of smoke.  Employees were smokers.  Secondly, our room was not cleaned the second night we were there which is okay.  Thirdly but most importantly pets jumped up and licked me in elevator.  The smell was horrible, I thought I was going to throw up in the elevator.  When I told desk clerk, called 800 number and spoke to general manager, no apology, no correction and no refund offered. "This is a pet friendly hotel." was the pat answer.  So pets and smoking are more important than guests.  Pit bulls, smelly dogs in elevator...jumping and licking REALLY!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r381877688-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>381877688</t>
+  </si>
+  <si>
+    <t>06/12/2016</t>
+  </si>
+  <si>
+    <t>Home away from Home</t>
+  </si>
+  <si>
+    <t>Talk about a place that make you feel welcomed. This place is it. No, this place don't have posh, uber luxurious accommodations or room service but they are friendly and accommodating. We started using them back in 2012 and they still have our votes of the 'Home away from Home' hotel. Check in is fast and check out is faster. Breakfast is hot and enough. Fruit fresh and selection plenty. If you're looking for a hotel to stay at from the Cleveland to Humble area out to even Conroe then this would be, and is, at the TOP of our list. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Billy p, General Manager at Best Western Plus New Caney Inn &amp; Suites, responded to this reviewResponded June 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 16, 2016</t>
+  </si>
+  <si>
+    <t>Talk about a place that make you feel welcomed. This place is it. No, this place don't have posh, uber luxurious accommodations or room service but they are friendly and accommodating. We started using them back in 2012 and they still have our votes of the 'Home away from Home' hotel. Check in is fast and check out is faster. Breakfast is hot and enough. Fruit fresh and selection plenty. If you're looking for a hotel to stay at from the Cleveland to Humble area out to even Conroe then this would be, and is, at the TOP of our list. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r368882310-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>368882310</t>
+  </si>
+  <si>
+    <t>04/29/2016</t>
+  </si>
+  <si>
+    <t>Pet friendly savior.</t>
+  </si>
+  <si>
+    <t>We were displaced due to flooding and they helped us in every way they could. Great staff and clean rooms. Very happy with our 3 day stay. Karen was fantastic at the front desk. We stayed as a emergency, but would love to go back to just relax.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>We were displaced due to flooding and they helped us in every way they could. Great staff and clean rooms. Very happy with our 3 day stay. Karen was fantastic at the front desk. We stayed as a emergency, but would love to go back to just relax.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r365298015-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>365298015</t>
+  </si>
+  <si>
+    <t>04/18/2016</t>
+  </si>
+  <si>
+    <t>Very nice hotel</t>
+  </si>
+  <si>
+    <t>This hotel seems to be relatively new.  It was extremely clean. I would recommend anyone  traveling to the New Caney area to use this hotel.  The staff was very helpful even at 3:30 AM when several of the parents of our ball team checked in.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel seems to be relatively new.  It was extremely clean. I would recommend anyone  traveling to the New Caney area to use this hotel.  The staff was very helpful even at 3:30 AM when several of the parents of our ball team checked in.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r348083528-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>348083528</t>
+  </si>
+  <si>
+    <t>02/15/2016</t>
+  </si>
+  <si>
+    <t>Great Place to Stay with Great Breakfast</t>
+  </si>
+  <si>
+    <t>Whenever we visit our niece, the Best Western New Caney Inn and Suites is our top choice.  The staff is super friendly. The rooms are clean. The breakfast is always great and the breakfast area is always clean. This hotel is a no brainer if you're traveling on a budget and want a quiet place to stay. No complaints.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Billy p, Manager at Best Western Plus New Caney Inn &amp; Suites, responded to this reviewResponded February 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 16, 2016</t>
+  </si>
+  <si>
+    <t>Whenever we visit our niece, the Best Western New Caney Inn and Suites is our top choice.  The staff is super friendly. The rooms are clean. The breakfast is always great and the breakfast area is always clean. This hotel is a no brainer if you're traveling on a budget and want a quiet place to stay. No complaints.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r337169375-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>337169375</t>
+  </si>
+  <si>
+    <t>01/03/2016</t>
+  </si>
+  <si>
+    <t>Sleep Good!</t>
+  </si>
+  <si>
+    <t>Great beds with comfy mattresses, a welcome respite from the guest room futons that we'd been sleeping on in our family stay. Impeccably clean bathroom (I check), a good breakfast to start the day. Our usual reliable best western experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Billy p, General Manager at Best Western Plus New Caney Inn &amp; Suites, responded to this reviewResponded January 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 16, 2016</t>
+  </si>
+  <si>
+    <t>Great beds with comfy mattresses, a welcome respite from the guest room futons that we'd been sleeping on in our family stay. Impeccably clean bathroom (I check), a good breakfast to start the day. Our usual reliable best western experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r336350657-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>336350657</t>
+  </si>
+  <si>
+    <t>01/01/2016</t>
+  </si>
+  <si>
+    <t>Rodeo Trip</t>
+  </si>
+  <si>
+    <t>The Best Western had clean comfortable rooms close to highway. Nice places to eat a short drive away. The staff were friendly and front area was very clean. The breakfast was good with enough choices to start your day.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Billy p, General Manager at Best Western Plus New Caney Inn &amp; Suites, responded to this reviewResponded January 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 3, 2016</t>
+  </si>
+  <si>
+    <t>The Best Western had clean comfortable rooms close to highway. Nice places to eat a short drive away. The staff were friendly and front area was very clean. The breakfast was good with enough choices to start your day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r322244941-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>322244941</t>
+  </si>
+  <si>
+    <t>10/26/2015</t>
+  </si>
+  <si>
+    <t>Stay</t>
+  </si>
+  <si>
+    <t>The hotel was very clean and comfortable.  The hotel actually looks like the pictures.  Will be staying their again, and staff was very nice too.  Bed was very comfortable, had a nice work out room, even had a pool, and breakfast bar.  Rooms were very large in size.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Billy p, General Manager at Best Western Plus New Caney Inn &amp; Suites, responded to this reviewResponded November 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 22, 2015</t>
+  </si>
+  <si>
+    <t>The hotel was very clean and comfortable.  The hotel actually looks like the pictures.  Will be staying their again, and staff was very nice too.  Bed was very comfortable, had a nice work out room, even had a pool, and breakfast bar.  Rooms were very large in size.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r321290334-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>321290334</t>
+  </si>
+  <si>
+    <t>10/23/2015</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Horrible customer service after spending obscene amount of money having our employees stay there. Our company will not be recommending this hotel to anyone due to bad customer service. Jeff is the employee whom argued, raised voice, and gave horrible customer service.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r313924947-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>313924947</t>
+  </si>
+  <si>
+    <t>09/26/2015</t>
+  </si>
+  <si>
+    <t>Best Western-New Caney</t>
+  </si>
+  <si>
+    <t>Overall a great hotel with a friendly and helpful staff.  This location is conveniently located for my needs to the areas in which I work.  The rooms are nice, comfortable, and well furnished.  This hotel has always been very quiet and the beds are very comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Billy p, General Manager at Best Western Plus New Caney Inn &amp; Suites, responded to this reviewResponded October 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 20, 2015</t>
+  </si>
+  <si>
+    <t>Overall a great hotel with a friendly and helpful staff.  This location is conveniently located for my needs to the areas in which I work.  The rooms are nice, comfortable, and well furnished.  This hotel has always been very quiet and the beds are very comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r289410972-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>289410972</t>
+  </si>
+  <si>
+    <t>07/15/2015</t>
+  </si>
+  <si>
+    <t>Very quiet</t>
+  </si>
+  <si>
+    <t>great stay if business is new New Caney, Kingwood or Porter.  Very quiet and several restaurants to choose from within 15 minutes.  Accessible from US Highway 59.  Staff was very friendly and helpful for dining suggestionsMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Billy p, General Manager at Best Western Plus New Caney Inn &amp; Suites, responded to this reviewResponded July 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2015</t>
+  </si>
+  <si>
+    <t>great stay if business is new New Caney, Kingwood or Porter.  Very quiet and several restaurants to choose from within 15 minutes.  Accessible from US Highway 59.  Staff was very friendly and helpful for dining suggestionsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r281410401-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>281410401</t>
+  </si>
+  <si>
+    <t>06/19/2015</t>
+  </si>
+  <si>
+    <t>Will not stay there again</t>
+  </si>
+  <si>
+    <t>If you plan on checking in early, do not stay here. I stay in Best Western on a weekly basis. I always check in around 6 am and not once have any of them charged me an early check-in fee. They told us it would be $50 to check in early. When we asked why, the guy said "well we have to charge to check in early, we usually charge an entire day but I'll only charge you $50." He felt as if he was doing us a favor. We stayed anyways, huge mistake. Definitely will not be going back to this location.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r281516212-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>281516212</t>
+  </si>
+  <si>
+    <t>Excellent hotel!</t>
+  </si>
+  <si>
+    <t>Lovely hotel and very friendly, accommodating staff. The room was clean and the beds very comfortable.  The jaccuzzi in the room was very enjoyable and relaxing.   Access to the hotel property was inconvenient due to highway construction.  Would highly recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Billy p, General Manager at Best Western Plus New Caney Inn &amp; Suites, responded to this reviewResponded July 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2015</t>
+  </si>
+  <si>
+    <t>Lovely hotel and very friendly, accommodating staff. The room was clean and the beds very comfortable.  The jaccuzzi in the room was very enjoyable and relaxing.   Access to the hotel property was inconvenient due to highway construction.  Would highly recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r264380107-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>264380107</t>
+  </si>
+  <si>
+    <t>04/07/2015</t>
+  </si>
+  <si>
+    <t>April travel</t>
+  </si>
+  <si>
+    <t>This was an awesome hotel located within 30 minutes of all the locations I needed to be.  The staff were all very friendly and helpful.  I have stayed at this hotel on a number of occasions and it has been consistently good each time.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Billy p, General Manager at Best Western Plus New Caney Inn &amp; Suites, responded to this reviewResponded June 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2015</t>
+  </si>
+  <si>
+    <t>This was an awesome hotel located within 30 minutes of all the locations I needed to be.  The staff were all very friendly and helpful.  I have stayed at this hotel on a number of occasions and it has been consistently good each time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r255461192-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>255461192</t>
+  </si>
+  <si>
+    <t>02/20/2015</t>
+  </si>
+  <si>
+    <t>Great Stay, Super Desk Staff</t>
+  </si>
+  <si>
+    <t>About a week ago, our flight was cancelled out of Houston to Indianapolis at the last minute.  All of us were shocked, including the pilot who was at the door.  Took our plane to Columbus, OH. We waiting in line for over 2 hours to get rerouted, the next day, of course!  We were given taxi and hotel vouchers to the Best Western Plus at New Caney.
+When my husband and I arrived there were several from the same flight who had been sent there.  Karen was superb.  We had probably "simmered" down by the time we got there, but she was so personable with a great sense of humor.  You could tell she loved her job.  We all had a great experience at check in.  She arranged our taxi for the next AM and we were off to our room.  
+I have stayed in Best Westerns in the past, but this was the best ever.  Our room was quite clean,  modern, nice bathroom with toiletries, refrigerator , etc.  Slept well.  The room was quite a nice size.  We were concerned being placed right across from the elevator, but we heard nothing.  She said they were full, but we really heard no one.
+The next morning, we were up early and went to the very nice hot breakfast with eggs, sausage gravy, cereals, yogurt, pastries, waffles, etc.  Great selection.  Nice breakfast area.
+The manager happened to be at the desk...About a week ago, our flight was cancelled out of Houston to Indianapolis at the last minute.  All of us were shocked, including the pilot who was at the door.  Took our plane to Columbus, OH. We waiting in line for over 2 hours to get rerouted, the next day, of course!  We were given taxi and hotel vouchers to the Best Western Plus at New Caney.When my husband and I arrived there were several from the same flight who had been sent there.  Karen was superb.  We had probably "simmered" down by the time we got there, but she was so personable with a great sense of humor.  You could tell she loved her job.  We all had a great experience at check in.  She arranged our taxi for the next AM and we were off to our room.  I have stayed in Best Westerns in the past, but this was the best ever.  Our room was quite clean,  modern, nice bathroom with toiletries, refrigerator , etc.  Slept well.  The room was quite a nice size.  We were concerned being placed right across from the elevator, but we heard nothing.  She said they were full, but we really heard no one.The next morning, we were up early and went to the very nice hot breakfast with eggs, sausage gravy, cereals, yogurt, pastries, waffles, etc.  Great selection.  Nice breakfast area.The manager happened to be at the desk when I went down to ask something and he was most pleasant.  I sensed that he was nice to work with.  Since we were up early, we asked Karen (yes, she was back on duty), if it was too last to take an earlier taxi.  She said because of the location it was, but she had someone going to the airport in 30 min.  So we joined that person, who had been in line with us, but we didn't know they were at the note.  Our taxi driver was excellent. Karen had told us that they try to use certain ones, and this lady was a gem.  Don't know if we will ever be in that area again, but if we are, we will certainly contact them.  Thank you for making our "bad adventure" at the airport become an nice opportunity.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Billy p, General Manager at Best Western Plus New Caney Inn &amp; Suites, responded to this reviewResponded March 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 4, 2015</t>
+  </si>
+  <si>
+    <t>About a week ago, our flight was cancelled out of Houston to Indianapolis at the last minute.  All of us were shocked, including the pilot who was at the door.  Took our plane to Columbus, OH. We waiting in line for over 2 hours to get rerouted, the next day, of course!  We were given taxi and hotel vouchers to the Best Western Plus at New Caney.
+When my husband and I arrived there were several from the same flight who had been sent there.  Karen was superb.  We had probably "simmered" down by the time we got there, but she was so personable with a great sense of humor.  You could tell she loved her job.  We all had a great experience at check in.  She arranged our taxi for the next AM and we were off to our room.  
+I have stayed in Best Westerns in the past, but this was the best ever.  Our room was quite clean,  modern, nice bathroom with toiletries, refrigerator , etc.  Slept well.  The room was quite a nice size.  We were concerned being placed right across from the elevator, but we heard nothing.  She said they were full, but we really heard no one.
+The next morning, we were up early and went to the very nice hot breakfast with eggs, sausage gravy, cereals, yogurt, pastries, waffles, etc.  Great selection.  Nice breakfast area.
+The manager happened to be at the desk...About a week ago, our flight was cancelled out of Houston to Indianapolis at the last minute.  All of us were shocked, including the pilot who was at the door.  Took our plane to Columbus, OH. We waiting in line for over 2 hours to get rerouted, the next day, of course!  We were given taxi and hotel vouchers to the Best Western Plus at New Caney.When my husband and I arrived there were several from the same flight who had been sent there.  Karen was superb.  We had probably "simmered" down by the time we got there, but she was so personable with a great sense of humor.  You could tell she loved her job.  We all had a great experience at check in.  She arranged our taxi for the next AM and we were off to our room.  I have stayed in Best Westerns in the past, but this was the best ever.  Our room was quite clean,  modern, nice bathroom with toiletries, refrigerator , etc.  Slept well.  The room was quite a nice size.  We were concerned being placed right across from the elevator, but we heard nothing.  She said they were full, but we really heard no one.The next morning, we were up early and went to the very nice hot breakfast with eggs, sausage gravy, cereals, yogurt, pastries, waffles, etc.  Great selection.  Nice breakfast area.The manager happened to be at the desk when I went down to ask something and he was most pleasant.  I sensed that he was nice to work with.  Since we were up early, we asked Karen (yes, she was back on duty), if it was too last to take an earlier taxi.  She said because of the location it was, but she had someone going to the airport in 30 min.  So we joined that person, who had been in line with us, but we didn't know they were at the note.  Our taxi driver was excellent. Karen had told us that they try to use certain ones, and this lady was a gem.  Don't know if we will ever be in that area again, but if we are, we will certainly contact them.  Thank you for making our "bad adventure" at the airport become an nice opportunity.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r251734599-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>251734599</t>
+  </si>
+  <si>
+    <t>01/29/2015</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>Overall great stay.  Room was comfortable, clean and well maintained.  It was also very quiet.  It was within 30 minutes of my business location and was worth the extra few minutes drive. Freeway access is under construction but still only takes about five minutes to get southbound on I-59.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Billy p, General Manager at Best Western Plus New Caney Inn &amp; Suites, responded to this reviewResponded February 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 1, 2015</t>
+  </si>
+  <si>
+    <t>Overall great stay.  Room was comfortable, clean and well maintained.  It was also very quiet.  It was within 30 minutes of my business location and was worth the extra few minutes drive. Freeway access is under construction but still only takes about five minutes to get southbound on I-59.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r244492985-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>244492985</t>
+  </si>
+  <si>
+    <t>12/14/2014</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>We stayed at this location with our science Olympiad team. There were 15 kids and about 20 adults.  We like to practice the night before we start the competition.  The hotel staff allowed us to use the lobby and breakfast area.  It was great.  We ordered pizza.  The kids were well behaved.  The staff was so nice to our kids.  They treated us like they were part of our team.  The helped us make sure we got our pizza.  let us have some napkins and paper plates to eat on.  They were very very nice to us.  It was a great experience</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r240278506-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>240278506</t>
+  </si>
+  <si>
+    <t>11/17/2014</t>
+  </si>
+  <si>
+    <t>Due to airport delays - found this gem by accident</t>
+  </si>
+  <si>
+    <t>Due to a detour in our flight plans, we found ourselves staying overnight in the Houston area.  We found this hotel by accident.  The staff was very friendly.  The rooms were very clean and comfortable.  The accommodations were efficient...there were no frills. They provided a free breakfast, but we had to leave too early to enjoy it.  Be aware...unrelated to this hotel...there are unscrupulous cab drivers at the airport.  This guy acted like he didn't know where our hotel was located (even though it was on a main highway a short ride from the airport) and "got lost" even though we could see the hotel as we passed it.  We made a fuss and he discounted our charges.  Another patron of this hotel complained of a similar situation and ended up paying a ridiculous amount in cab fare.  I would recommend asking the hotel for their preferred cab company ahead of time instead.  Our ride back to the airport was just fine.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>Billy p, General Manager at Best Western Plus New Caney Inn &amp; Suites, responded to this reviewResponded December 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 1, 2014</t>
+  </si>
+  <si>
+    <t>Due to a detour in our flight plans, we found ourselves staying overnight in the Houston area.  We found this hotel by accident.  The staff was very friendly.  The rooms were very clean and comfortable.  The accommodations were efficient...there were no frills. They provided a free breakfast, but we had to leave too early to enjoy it.  Be aware...unrelated to this hotel...there are unscrupulous cab drivers at the airport.  This guy acted like he didn't know where our hotel was located (even though it was on a main highway a short ride from the airport) and "got lost" even though we could see the hotel as we passed it.  We made a fuss and he discounted our charges.  Another patron of this hotel complained of a similar situation and ended up paying a ridiculous amount in cab fare.  I would recommend asking the hotel for their preferred cab company ahead of time instead.  Our ride back to the airport was just fine.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r237104292-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>237104292</t>
+  </si>
+  <si>
+    <t>10/30/2014</t>
+  </si>
+  <si>
+    <t>Excellent Hotel</t>
+  </si>
+  <si>
+    <t>My booking agent found this hotel after a previous hotel had overbooked.  The hotel staff was very friendly, and I was given an upgrade to a nicer room for my trouble.  The hotel was very clean, and the breakfast was excellent.  A bit out of the way if you are at the airport.  I would definately stay here again.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r235657983-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>235657983</t>
+  </si>
+  <si>
+    <t>10/21/2014</t>
+  </si>
+  <si>
+    <t>Comfortable</t>
+  </si>
+  <si>
+    <t>Nice value and comfortable room. No odors other than carpet cleaning (mild). Bed was comfortable. Room and bath were clean. My room location on 3rd floor back of hotel was quiet. Staff were friendly enough and helpful. Check In &amp; Check out was quick and professional</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r225390174-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>225390174</t>
+  </si>
+  <si>
+    <t>08/29/2014</t>
+  </si>
+  <si>
+    <t>Don't leave anything behind</t>
+  </si>
+  <si>
+    <t>I left my hair drier behind, and was told it had been found in my room. When I went to pick it up, they could not find it where it was supposed to have been left for me. No phone call to tell me later that they had found it, as they had also lost my number. I never got my drier back. Not what I expected from a major Hotel chain like Best Western. Or is it the staff you can't trust.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r218718799-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>218718799</t>
+  </si>
+  <si>
+    <t>07/31/2014</t>
+  </si>
+  <si>
+    <t>Lots of small things didn't work...</t>
+  </si>
+  <si>
+    <t>Hotel staff were friendly and the rooms seemed clean. I guess they were doing a really good job cleaning the carpet because when we went into our room, the footstool was stacked on top of the sitting chair - odd. There were several small things that didn't work like they should. When we turned on the television, we got nothing but static. It took about 5-10 minutes to find a channel that wasn't static, and when we did get a channel, the picture was very poor. The "up" button on the remote didn't work. In the gym, the television and the clock didn't work and the elliptical machine wobbled too much to use. The shower curtain was too short to reach the tub so it did nothing to keep the water off the floor. And - this one is very, very minor but topped off our visit - the trash can in the breakfast room is supposedly "no touch" (the lid opens automatically) but it didn't work do I had to manually touch the trash can while I was preparing my breakfast items.  Overall, it wasn't a terribly unpleasant visit but those minor things all added up so that I probably would choose another hotel the next time I'm in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Hotel staff were friendly and the rooms seemed clean. I guess they were doing a really good job cleaning the carpet because when we went into our room, the footstool was stacked on top of the sitting chair - odd. There were several small things that didn't work like they should. When we turned on the television, we got nothing but static. It took about 5-10 minutes to find a channel that wasn't static, and when we did get a channel, the picture was very poor. The "up" button on the remote didn't work. In the gym, the television and the clock didn't work and the elliptical machine wobbled too much to use. The shower curtain was too short to reach the tub so it did nothing to keep the water off the floor. And - this one is very, very minor but topped off our visit - the trash can in the breakfast room is supposedly "no touch" (the lid opens automatically) but it didn't work do I had to manually touch the trash can while I was preparing my breakfast items.  Overall, it wasn't a terribly unpleasant visit but those minor things all added up so that I probably would choose another hotel the next time I'm in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r211840115-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>211840115</t>
+  </si>
+  <si>
+    <t>06/24/2014</t>
+  </si>
+  <si>
+    <t>Very Clean Hotel</t>
+  </si>
+  <si>
+    <t>Stayed overnight in New Caney for a basketball tournament. Besides getting to the hotel because of the road construction, this was a very clean hotel and great price. The room was big. Staff were very helpful. Will stay here again if I travel back to New Caney.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r211143384-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>211143384</t>
+  </si>
+  <si>
+    <t>06/19/2014</t>
+  </si>
+  <si>
+    <t>Fairly Accessible</t>
+  </si>
+  <si>
+    <t>The Best Western, Caney is pretty much like all others -- it's usable.  The accessible suit has a big bathroom with a roll in shower and the sink, toilet, and shower all meet accessibility standards.  There is a small lip at the bathroom door and the floor has a drain in the middle, so the floor slopes to the drain and is not level.  I am not a fan of the fold down shower chairs like this one because it has no back (see photo) -- you have to hold on to the rail if you have no balance.  And if you use a chair and travel alone, you need to bring something to knock the hand held shower head out of it's socket, as it's out of reach.The bed is 30 inches high.  It meets ADA Accessibility Guidelines, but it's a climb up from a wheelchair and I don't know why that standard has never been changed.  The room was clean and the staff friendly.  It's fairly new.  Parking and path of travel is good.MoreShow less</t>
+  </si>
+  <si>
+    <t>The Best Western, Caney is pretty much like all others -- it's usable.  The accessible suit has a big bathroom with a roll in shower and the sink, toilet, and shower all meet accessibility standards.  There is a small lip at the bathroom door and the floor has a drain in the middle, so the floor slopes to the drain and is not level.  I am not a fan of the fold down shower chairs like this one because it has no back (see photo) -- you have to hold on to the rail if you have no balance.  And if you use a chair and travel alone, you need to bring something to knock the hand held shower head out of it's socket, as it's out of reach.The bed is 30 inches high.  It meets ADA Accessibility Guidelines, but it's a climb up from a wheelchair and I don't know why that standard has never been changed.  The room was clean and the staff friendly.  It's fairly new.  Parking and path of travel is good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r211172786-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>211172786</t>
+  </si>
+  <si>
+    <t>My stay at Best Western Plus New Caney</t>
+  </si>
+  <si>
+    <t>Great place, friendly and helpful staff. Overall I would stay again and recommend it to others. A little out of the way to get to due to contraction but still not bad. Close to town, restaurants and shopping and not far from the Metroplex.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r206920179-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>206920179</t>
+  </si>
+  <si>
+    <t>05/24/2014</t>
+  </si>
+  <si>
+    <t>Wonderful Stay-Very Clean</t>
+  </si>
+  <si>
+    <t>Friendly staff, made us feel welcome. Very clean inside and out. Great pool and hot tub. Breakfast was really good, lots of choices. My only complaint was I wished they had more hot tea options. We will definitely stay here again!</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r205156397-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>205156397</t>
+  </si>
+  <si>
+    <t>05/11/2014</t>
+  </si>
+  <si>
+    <t>A great place to stay</t>
+  </si>
+  <si>
+    <t>Went for OTC.  Could not find anything in Houston.  Found this great location.  It was kind of a drive but the cleanliness and comfort of the hotel made it worth it.  The front desk response is quick.  The wifi worked very well to my surprise ( I had read in a review that the wifi was sketchy but that was not the case)  The bed was really comfortable.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r193286269-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>193286269</t>
+  </si>
+  <si>
+    <t>02/06/2014</t>
+  </si>
+  <si>
+    <t>Excellent overnight</t>
+  </si>
+  <si>
+    <t>Due to road construction, it's easy to miss the entrance, especially at night (you have to go through the La Quinta parking lot). However, it was more than worth that minor inconvenience. The hotel is very clean, the rooms are spacious and the beds are new.  The mattress was a little firmer than I prefer (even though the website advertises "pillowtop"), but still got a good night's rest.  We were on the 3rd floor and it was very quiet.  Maybe it's just on 3rd floor but it took a little bit of time for hot water to reach lavatory, however once it got there it was fine.  Breakfast was eggs, sausage, gravy and any breads/rolls/cereals you want along with fruit, etc. Breakfast attendant made sure we had everything we needed.  Front desk staff was very courteous.   I would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Due to road construction, it's easy to miss the entrance, especially at night (you have to go through the La Quinta parking lot). However, it was more than worth that minor inconvenience. The hotel is very clean, the rooms are spacious and the beds are new.  The mattress was a little firmer than I prefer (even though the website advertises "pillowtop"), but still got a good night's rest.  We were on the 3rd floor and it was very quiet.  Maybe it's just on 3rd floor but it took a little bit of time for hot water to reach lavatory, however once it got there it was fine.  Breakfast was eggs, sausage, gravy and any breads/rolls/cereals you want along with fruit, etc. Breakfast attendant made sure we had everything we needed.  Front desk staff was very courteous.   I would stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r187937374-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>187937374</t>
+  </si>
+  <si>
+    <t>12/17/2013</t>
+  </si>
+  <si>
+    <t>Best in the area...  Period!!!</t>
+  </si>
+  <si>
+    <t>I've stayed at this particular hotel dozens of times over the years for business, and this is by far the greatest bang for your buck in the area.  Bipin (Billy), the general manager, is super nice, and his staff are all very pleasant and accommodating.  The lobby is beautiful, the rooms are spacious, and the amenities are pretty standard.  The only area that needs a little improvement is the WiFi, which can be spotty.  However, it's free, so all in all there's not much to complain about.  I'd recommend this place to anyone needing to find a quality, affordable hotel in the area.</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r185154450-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>185154450</t>
+  </si>
+  <si>
+    <t>11/18/2013</t>
+  </si>
+  <si>
+    <t>Consistently Good Service &amp; Accommodations</t>
+  </si>
+  <si>
+    <t>Great customer service.  And I love those high ceilings in the rooms...it makes the hotel room seem so much more spacious.  (The highway construction near the hotel is a pain, but getting there is worth it, especially if Karen is working the desk!)</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r185154208-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>185154208</t>
+  </si>
+  <si>
+    <t>11/17/2013</t>
+  </si>
+  <si>
+    <t>Quick overnight Stay</t>
+  </si>
+  <si>
+    <t>My daughter had a day visit in Huntsville on a Sunday, but we have an obligation in Baytown on Saturday night, so we decided that we would stay somewhere between the two.  I decided on the Best Western in New Caney.  We arrived very tired late that evening and were given our room quickly and found it to be very clean and even the temperature was set comfortable.  We would definitely stay there again</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r168258694-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>168258694</t>
+  </si>
+  <si>
+    <t>07/19/2013</t>
+  </si>
+  <si>
+    <t>Best Western</t>
+  </si>
+  <si>
+    <t>Rooms were comfortable and spacious and clean.  The beds were comfortable.  The breakfast selections were good and we were satisfied.  Although there were visiting baseball teams of young boys in the same hotel we barely noticed that they were there.  The pool was clean and inviting.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r166226165-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>166226165</t>
+  </si>
+  <si>
+    <t>07/03/2013</t>
+  </si>
+  <si>
+    <t>GREAT PLACE</t>
+  </si>
+  <si>
+    <t>This place is just what it is called The best. very clean nice neat great staff. I would stay here again. Great place for business trips vacation or just a great time. Hot biscuits and gravy for breakfast really nice. Housekeeping is excellent</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r163262028-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>163262028</t>
+  </si>
+  <si>
+    <t>06/07/2013</t>
+  </si>
+  <si>
+    <t>Awesome.</t>
+  </si>
+  <si>
+    <t>Nice hotel, clean, comfortable. The suites were great, sitting area with a couch, two flatscreen tv's in the room. Beds were comfortable. Adequate parking, friendly staff. I'd stay there again, anytime! Housekeeping did a great job, daily.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r148384662-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>148384662</t>
+  </si>
+  <si>
+    <t>12/30/2012</t>
+  </si>
+  <si>
+    <t>Houston area</t>
+  </si>
+  <si>
+    <t>Wifi was nonexistent in room on second floor. Only could access Internet, email at front desk. Room was clean. Ceiling in bathroom above shower/tub had a patch job that was incomplete and gave me the impression of uncleanliness.</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r131560503-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>131560503</t>
+  </si>
+  <si>
+    <t>06/08/2012</t>
+  </si>
+  <si>
+    <t>A Great Stay!</t>
+  </si>
+  <si>
+    <t>My, how we love NEW hotels! Attending a birthday party near Houston, my wife and I wanted to stay at a hotel just off Rt 59. We reserved a room at Best Western Plus a couple of weeks before, at a wonderful price (surprisingly, because it was listed as being newly opened). Got there a good hour before checkin. They told us it would be about 10 minutes. Being that this was the Saturday of the Memorial Day weekend, and their parking lot was quite full, we certainly understood if they couldn't get us in early. It wasn't more than five minutes after we had sat down, that the Manager motioned to us. Instead of keeping us waiting, he upgraded us to a suite! Wow, that's a good start! The large room smelled good and clean, there were two flat screen TV's, a wonderful air conditioner, and a relatively comfortable bed (a bit hard, but why am I complaining?!?) After a good night's sleep, we had the included  breakfast. The breakfast room was a bit small, but had so much of everything from cereals to Texas-shaped waffles! I know it's kinda boring reading about a new hotel, but these guys seem to have their act together. They're relatively close to Houston International, just in case you may be looking for a place to stay before you fly out.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>My, how we love NEW hotels! Attending a birthday party near Houston, my wife and I wanted to stay at a hotel just off Rt 59. We reserved a room at Best Western Plus a couple of weeks before, at a wonderful price (surprisingly, because it was listed as being newly opened). Got there a good hour before checkin. They told us it would be about 10 minutes. Being that this was the Saturday of the Memorial Day weekend, and their parking lot was quite full, we certainly understood if they couldn't get us in early. It wasn't more than five minutes after we had sat down, that the Manager motioned to us. Instead of keeping us waiting, he upgraded us to a suite! Wow, that's a good start! The large room smelled good and clean, there were two flat screen TV's, a wonderful air conditioner, and a relatively comfortable bed (a bit hard, but why am I complaining?!?) After a good night's sleep, we had the included  breakfast. The breakfast room was a bit small, but had so much of everything from cereals to Texas-shaped waffles! I know it's kinda boring reading about a new hotel, but these guys seem to have their act together. They're relatively close to Houston International, just in case you may be looking for a place to stay before you fly out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r130901342-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>130901342</t>
+  </si>
+  <si>
+    <t>05/29/2012</t>
+  </si>
+  <si>
+    <t>Great Stay!</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here over the 2012 Memorial Day weekend. We selected the hotel based on the weekend special they were having - king non-smoking @$63.99 per night.  In addition to the price, the hotel is also pet friendly which was wonderful.  Not only did we stay there, but so did 3 other members of our family.   Between all of us, we brought 3 dogs.The hotel was very clean, staff was super friendly and helpful, the pool was wonderful and the continental breakfast was good.  The grounds were very well kept.  In all, we were very pleased with our stay and will stay there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r84461109-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>84461109</t>
+  </si>
+  <si>
+    <t>10/22/2010</t>
+  </si>
+  <si>
+    <t>Just FAB !</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at this property while in town visiting my grandmother .
+It was in a great location we were right in the middle of where my grandmother lives and downtown Houston ,which we also were going to see the Cubs at the Astros ball park .
+when we got the Best Western the property and parking lot were very clean as we entered the lobby which was beautiful, the desk clerks were all very nice and helpful. we checked in and went up to our room and to our surprise the room was clean,well furnished and the bed was comfortable . 
+We slept well and when we woke and went down to the lobby the smell of fresh waffles filled the air .
+We ate the FREE breakfast which was very good. It included waffles, variety of breads, cereal, eggs, sausage, juice ,coffee and all the condiments . Each night we came back to the hotel we were greeted by the hotel staff which almost seemed like coming home to a family , we were asked about our adventures for the day and even given tips on where to go and what to do . We even had a chance to spend some time in the pool . which is really neat at night cause of the light set up , the ambience was nice . By the time our stay was over it was sad...My husband and I stayed at this property while in town visiting my grandmother .It was in a great location we were right in the middle of where my grandmother lives and downtown Houston ,which we also were going to see the Cubs at the Astros ball park .when we got the Best Western the property and parking lot were very clean as we entered the lobby which was beautiful, the desk clerks were all very nice and helpful. we checked in and went up to our room and to our surprise the room was clean,well furnished and the bed was comfortable . We slept well and when we woke and went down to the lobby the smell of fresh waffles filled the air .We ate the FREE breakfast which was very good. It included waffles, variety of breads, cereal, eggs, sausage, juice ,coffee and all the condiments . Each night we came back to the hotel we were greeted by the hotel staff which almost seemed like coming home to a family , we were asked about our adventures for the day and even given tips on where to go and what to do . We even had a chance to spend some time in the pool . which is really neat at night cause of the light set up , the ambience was nice . By the time our stay was over it was sad to say goodbye. the hotel staff made our visit so comfortable , and such a great experience . we had such a wonderful stay that my husband in one of his UWF classes used this customer experience as an example in a paper . And as a corporate travel arranger when I have clients in the area I refer them to this property . Thank You Best Western New Caney staff for making our stay so memorable . !MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at this property while in town visiting my grandmother .
+It was in a great location we were right in the middle of where my grandmother lives and downtown Houston ,which we also were going to see the Cubs at the Astros ball park .
+when we got the Best Western the property and parking lot were very clean as we entered the lobby which was beautiful, the desk clerks were all very nice and helpful. we checked in and went up to our room and to our surprise the room was clean,well furnished and the bed was comfortable . 
+We slept well and when we woke and went down to the lobby the smell of fresh waffles filled the air .
+We ate the FREE breakfast which was very good. It included waffles, variety of breads, cereal, eggs, sausage, juice ,coffee and all the condiments . Each night we came back to the hotel we were greeted by the hotel staff which almost seemed like coming home to a family , we were asked about our adventures for the day and even given tips on where to go and what to do . We even had a chance to spend some time in the pool . which is really neat at night cause of the light set up , the ambience was nice . By the time our stay was over it was sad...My husband and I stayed at this property while in town visiting my grandmother .It was in a great location we were right in the middle of where my grandmother lives and downtown Houston ,which we also were going to see the Cubs at the Astros ball park .when we got the Best Western the property and parking lot were very clean as we entered the lobby which was beautiful, the desk clerks were all very nice and helpful. we checked in and went up to our room and to our surprise the room was clean,well furnished and the bed was comfortable . We slept well and when we woke and went down to the lobby the smell of fresh waffles filled the air .We ate the FREE breakfast which was very good. It included waffles, variety of breads, cereal, eggs, sausage, juice ,coffee and all the condiments . Each night we came back to the hotel we were greeted by the hotel staff which almost seemed like coming home to a family , we were asked about our adventures for the day and even given tips on where to go and what to do . We even had a chance to spend some time in the pool . which is really neat at night cause of the light set up , the ambience was nice . By the time our stay was over it was sad to say goodbye. the hotel staff made our visit so comfortable , and such a great experience . we had such a wonderful stay that my husband in one of his UWF classes used this customer experience as an example in a paper . And as a corporate travel arranger when I have clients in the area I refer them to this property . Thank You Best Western New Caney staff for making our stay so memorable . !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r63558877-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>63558877</t>
+  </si>
+  <si>
+    <t>05/08/2010</t>
+  </si>
+  <si>
+    <t>A lot of room for the money!</t>
+  </si>
+  <si>
+    <t>We stayed at the New Caney Best Western as a convenient place from which to visit Kingwood, Tx.  This hotel is less than a year old and is very reasonable in price.  I got upgraded to a minisuite room and it was fabulous.  The ceilings were 12 feet high and the room was huge.  The decorating was also excellent.  A very nice breakfast buffet was included and fresh brownies were available in the lobby.  This may not be a Grand Hyatt, but for what I paid, it was an incredible buy.</t>
+  </si>
+  <si>
+    <t>May 2010</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1833,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1865,4060 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>79</v>
+      </c>
+      <c r="X5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>87</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>88</v>
+      </c>
+      <c r="X6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>78</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>96</v>
+      </c>
+      <c r="X7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" t="s">
+        <v>102</v>
+      </c>
+      <c r="L8" t="s">
+        <v>103</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>104</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>105</v>
+      </c>
+      <c r="X8" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" t="s">
+        <v>110</v>
+      </c>
+      <c r="L9" t="s">
+        <v>111</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>104</v>
+      </c>
+      <c r="O9" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>105</v>
+      </c>
+      <c r="X9" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>114</v>
+      </c>
+      <c r="J10" t="s">
+        <v>115</v>
+      </c>
+      <c r="K10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" t="s">
+        <v>116</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>104</v>
+      </c>
+      <c r="O10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>117</v>
+      </c>
+      <c r="X10" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>121</v>
+      </c>
+      <c r="J11" t="s">
+        <v>122</v>
+      </c>
+      <c r="K11" t="s">
+        <v>123</v>
+      </c>
+      <c r="L11" t="s">
+        <v>124</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>125</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>126</v>
+      </c>
+      <c r="X11" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>130</v>
+      </c>
+      <c r="J12" t="s">
+        <v>131</v>
+      </c>
+      <c r="K12" t="s">
+        <v>132</v>
+      </c>
+      <c r="L12" t="s">
+        <v>133</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>125</v>
+      </c>
+      <c r="O12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>134</v>
+      </c>
+      <c r="X12" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>137</v>
+      </c>
+      <c r="J13" t="s">
+        <v>138</v>
+      </c>
+      <c r="K13" t="s">
+        <v>139</v>
+      </c>
+      <c r="L13" t="s">
+        <v>140</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O13" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>134</v>
+      </c>
+      <c r="X13" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>144</v>
+      </c>
+      <c r="J14" t="s">
+        <v>145</v>
+      </c>
+      <c r="K14" t="s">
+        <v>146</v>
+      </c>
+      <c r="L14" t="s">
+        <v>147</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>148</v>
+      </c>
+      <c r="O14" t="s">
+        <v>149</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>151</v>
+      </c>
+      <c r="J15" t="s">
+        <v>152</v>
+      </c>
+      <c r="K15" t="s">
+        <v>153</v>
+      </c>
+      <c r="L15" t="s">
+        <v>154</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>148</v>
+      </c>
+      <c r="O15" t="s">
+        <v>149</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>155</v>
+      </c>
+      <c r="X15" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>159</v>
+      </c>
+      <c r="J16" t="s">
+        <v>160</v>
+      </c>
+      <c r="K16" t="s">
+        <v>161</v>
+      </c>
+      <c r="L16" t="s">
+        <v>162</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>163</v>
+      </c>
+      <c r="O16" t="s">
+        <v>87</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>155</v>
+      </c>
+      <c r="X16" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>165</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>166</v>
+      </c>
+      <c r="J17" t="s">
+        <v>167</v>
+      </c>
+      <c r="K17" t="s">
+        <v>168</v>
+      </c>
+      <c r="L17" t="s">
+        <v>169</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>170</v>
+      </c>
+      <c r="O17" t="s">
+        <v>149</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>172</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>173</v>
+      </c>
+      <c r="J18" t="s">
+        <v>174</v>
+      </c>
+      <c r="K18" t="s">
+        <v>175</v>
+      </c>
+      <c r="L18" t="s">
+        <v>176</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>170</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>178</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>179</v>
+      </c>
+      <c r="J19" t="s">
+        <v>180</v>
+      </c>
+      <c r="K19" t="s">
+        <v>181</v>
+      </c>
+      <c r="L19" t="s">
+        <v>182</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>183</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>184</v>
+      </c>
+      <c r="X19" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>187</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>188</v>
+      </c>
+      <c r="J20" t="s">
+        <v>189</v>
+      </c>
+      <c r="K20" t="s">
+        <v>190</v>
+      </c>
+      <c r="L20" t="s">
+        <v>191</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>192</v>
+      </c>
+      <c r="O20" t="s">
+        <v>149</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>193</v>
+      </c>
+      <c r="X20" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>196</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>197</v>
+      </c>
+      <c r="J21" t="s">
+        <v>198</v>
+      </c>
+      <c r="K21" t="s">
+        <v>199</v>
+      </c>
+      <c r="L21" t="s">
+        <v>200</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>192</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>193</v>
+      </c>
+      <c r="X21" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>202</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>203</v>
+      </c>
+      <c r="J22" t="s">
+        <v>204</v>
+      </c>
+      <c r="K22" t="s">
+        <v>205</v>
+      </c>
+      <c r="L22" t="s">
+        <v>206</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>207</v>
+      </c>
+      <c r="O22" t="s">
+        <v>60</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>1</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>209</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>210</v>
+      </c>
+      <c r="J23" t="s">
+        <v>211</v>
+      </c>
+      <c r="K23" t="s">
+        <v>212</v>
+      </c>
+      <c r="L23" t="s">
+        <v>213</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>214</v>
+      </c>
+      <c r="O23" t="s">
+        <v>149</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>215</v>
+      </c>
+      <c r="X23" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>218</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>219</v>
+      </c>
+      <c r="J24" t="s">
+        <v>220</v>
+      </c>
+      <c r="K24" t="s">
+        <v>221</v>
+      </c>
+      <c r="L24" t="s">
+        <v>222</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>223</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>215</v>
+      </c>
+      <c r="X24" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>225</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>226</v>
+      </c>
+      <c r="J25" t="s">
+        <v>227</v>
+      </c>
+      <c r="K25" t="s">
+        <v>228</v>
+      </c>
+      <c r="L25" t="s">
+        <v>229</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>223</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>215</v>
+      </c>
+      <c r="X25" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>231</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>232</v>
+      </c>
+      <c r="J26" t="s">
+        <v>233</v>
+      </c>
+      <c r="K26" t="s">
+        <v>234</v>
+      </c>
+      <c r="L26" t="s">
+        <v>235</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>236</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>237</v>
+      </c>
+      <c r="X26" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>240</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>241</v>
+      </c>
+      <c r="J27" t="s">
+        <v>242</v>
+      </c>
+      <c r="K27" t="s">
+        <v>243</v>
+      </c>
+      <c r="L27" t="s">
+        <v>244</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>245</v>
+      </c>
+      <c r="O27" t="s">
+        <v>149</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>246</v>
+      </c>
+      <c r="X27" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>249</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>250</v>
+      </c>
+      <c r="J28" t="s">
+        <v>251</v>
+      </c>
+      <c r="K28" t="s">
+        <v>252</v>
+      </c>
+      <c r="L28" t="s">
+        <v>253</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>254</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>255</v>
+      </c>
+      <c r="X28" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>258</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>259</v>
+      </c>
+      <c r="J29" t="s">
+        <v>260</v>
+      </c>
+      <c r="K29" t="s">
+        <v>261</v>
+      </c>
+      <c r="L29" t="s">
+        <v>262</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>263</v>
+      </c>
+      <c r="O29" t="s">
+        <v>60</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>264</v>
+      </c>
+      <c r="X29" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>267</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>268</v>
+      </c>
+      <c r="J30" t="s">
+        <v>269</v>
+      </c>
+      <c r="K30" t="s">
+        <v>270</v>
+      </c>
+      <c r="L30" t="s">
+        <v>271</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>263</v>
+      </c>
+      <c r="O30" t="s">
+        <v>60</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>272</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>273</v>
+      </c>
+      <c r="J31" t="s">
+        <v>274</v>
+      </c>
+      <c r="K31" t="s">
+        <v>275</v>
+      </c>
+      <c r="L31" t="s">
+        <v>276</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>277</v>
+      </c>
+      <c r="O31" t="s">
+        <v>60</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>278</v>
+      </c>
+      <c r="X31" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>281</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>282</v>
+      </c>
+      <c r="J32" t="s">
+        <v>283</v>
+      </c>
+      <c r="K32" t="s">
+        <v>284</v>
+      </c>
+      <c r="L32" t="s">
+        <v>285</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>286</v>
+      </c>
+      <c r="O32" t="s">
+        <v>60</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>287</v>
+      </c>
+      <c r="X32" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>290</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>291</v>
+      </c>
+      <c r="J33" t="s">
+        <v>292</v>
+      </c>
+      <c r="K33" t="s">
+        <v>293</v>
+      </c>
+      <c r="L33" t="s">
+        <v>294</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>295</v>
+      </c>
+      <c r="O33" t="s">
+        <v>60</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>296</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>297</v>
+      </c>
+      <c r="J34" t="s">
+        <v>292</v>
+      </c>
+      <c r="K34" t="s">
+        <v>298</v>
+      </c>
+      <c r="L34" t="s">
+        <v>299</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>295</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>300</v>
+      </c>
+      <c r="X34" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>303</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>304</v>
+      </c>
+      <c r="J35" t="s">
+        <v>305</v>
+      </c>
+      <c r="K35" t="s">
+        <v>306</v>
+      </c>
+      <c r="L35" t="s">
+        <v>307</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>308</v>
+      </c>
+      <c r="O35" t="s">
+        <v>60</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>309</v>
+      </c>
+      <c r="X35" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>312</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>313</v>
+      </c>
+      <c r="J36" t="s">
+        <v>314</v>
+      </c>
+      <c r="K36" t="s">
+        <v>315</v>
+      </c>
+      <c r="L36" t="s">
+        <v>316</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>317</v>
+      </c>
+      <c r="O36" t="s">
+        <v>149</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>318</v>
+      </c>
+      <c r="X36" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>321</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>322</v>
+      </c>
+      <c r="J37" t="s">
+        <v>323</v>
+      </c>
+      <c r="K37" t="s">
+        <v>324</v>
+      </c>
+      <c r="L37" t="s">
+        <v>325</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>326</v>
+      </c>
+      <c r="O37" t="s">
+        <v>60</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>327</v>
+      </c>
+      <c r="X37" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>330</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>331</v>
+      </c>
+      <c r="J38" t="s">
+        <v>332</v>
+      </c>
+      <c r="K38" t="s">
+        <v>333</v>
+      </c>
+      <c r="L38" t="s">
+        <v>334</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>335</v>
+      </c>
+      <c r="O38" t="s">
+        <v>336</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>337</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>338</v>
+      </c>
+      <c r="J39" t="s">
+        <v>339</v>
+      </c>
+      <c r="K39" t="s">
+        <v>340</v>
+      </c>
+      <c r="L39" t="s">
+        <v>341</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>342</v>
+      </c>
+      <c r="O39" t="s">
+        <v>60</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>343</v>
+      </c>
+      <c r="X39" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>346</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>347</v>
+      </c>
+      <c r="J40" t="s">
+        <v>348</v>
+      </c>
+      <c r="K40" t="s">
+        <v>349</v>
+      </c>
+      <c r="L40" t="s">
+        <v>350</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>351</v>
+      </c>
+      <c r="O40" t="s">
+        <v>87</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>352</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>353</v>
+      </c>
+      <c r="J41" t="s">
+        <v>354</v>
+      </c>
+      <c r="K41" t="s">
+        <v>355</v>
+      </c>
+      <c r="L41" t="s">
+        <v>356</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>351</v>
+      </c>
+      <c r="O41" t="s">
+        <v>60</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>357</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>358</v>
+      </c>
+      <c r="J42" t="s">
+        <v>359</v>
+      </c>
+      <c r="K42" t="s">
+        <v>360</v>
+      </c>
+      <c r="L42" t="s">
+        <v>361</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>362</v>
+      </c>
+      <c r="O42" t="s">
+        <v>336</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>2</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>363</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>364</v>
+      </c>
+      <c r="J43" t="s">
+        <v>365</v>
+      </c>
+      <c r="K43" t="s">
+        <v>366</v>
+      </c>
+      <c r="L43" t="s">
+        <v>367</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s">
+        <v>368</v>
+      </c>
+      <c r="O43" t="s">
+        <v>149</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>370</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>371</v>
+      </c>
+      <c r="J44" t="s">
+        <v>372</v>
+      </c>
+      <c r="K44" t="s">
+        <v>373</v>
+      </c>
+      <c r="L44" t="s">
+        <v>374</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>375</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>2</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>376</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>377</v>
+      </c>
+      <c r="J45" t="s">
+        <v>378</v>
+      </c>
+      <c r="K45" t="s">
+        <v>379</v>
+      </c>
+      <c r="L45" t="s">
+        <v>380</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>375</v>
+      </c>
+      <c r="O45" t="s">
+        <v>60</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>382</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>383</v>
+      </c>
+      <c r="J46" t="s">
+        <v>378</v>
+      </c>
+      <c r="K46" t="s">
+        <v>384</v>
+      </c>
+      <c r="L46" t="s">
+        <v>385</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>375</v>
+      </c>
+      <c r="O46" t="s">
+        <v>60</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>386</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>387</v>
+      </c>
+      <c r="J47" t="s">
+        <v>388</v>
+      </c>
+      <c r="K47" t="s">
+        <v>389</v>
+      </c>
+      <c r="L47" t="s">
+        <v>390</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>391</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>392</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>393</v>
+      </c>
+      <c r="J48" t="s">
+        <v>394</v>
+      </c>
+      <c r="K48" t="s">
+        <v>395</v>
+      </c>
+      <c r="L48" t="s">
+        <v>396</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>391</v>
+      </c>
+      <c r="O48" t="s">
+        <v>60</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>397</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>398</v>
+      </c>
+      <c r="J49" t="s">
+        <v>399</v>
+      </c>
+      <c r="K49" t="s">
+        <v>400</v>
+      </c>
+      <c r="L49" t="s">
+        <v>401</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>342</v>
+      </c>
+      <c r="O49" t="s">
+        <v>149</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>403</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>404</v>
+      </c>
+      <c r="J50" t="s">
+        <v>405</v>
+      </c>
+      <c r="K50" t="s">
+        <v>406</v>
+      </c>
+      <c r="L50" t="s">
+        <v>407</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>408</v>
+      </c>
+      <c r="O50" t="s">
+        <v>60</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>409</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>410</v>
+      </c>
+      <c r="J51" t="s">
+        <v>411</v>
+      </c>
+      <c r="K51" t="s">
+        <v>412</v>
+      </c>
+      <c r="L51" t="s">
+        <v>413</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>414</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>415</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>416</v>
+      </c>
+      <c r="J52" t="s">
+        <v>417</v>
+      </c>
+      <c r="K52" t="s">
+        <v>418</v>
+      </c>
+      <c r="L52" t="s">
+        <v>419</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>414</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>420</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>421</v>
+      </c>
+      <c r="J53" t="s">
+        <v>422</v>
+      </c>
+      <c r="K53" t="s">
+        <v>423</v>
+      </c>
+      <c r="L53" t="s">
+        <v>424</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>425</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>426</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>427</v>
+      </c>
+      <c r="J54" t="s">
+        <v>428</v>
+      </c>
+      <c r="K54" t="s">
+        <v>429</v>
+      </c>
+      <c r="L54" t="s">
+        <v>430</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>431</v>
+      </c>
+      <c r="O54" t="s">
+        <v>60</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>432</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>433</v>
+      </c>
+      <c r="J55" t="s">
+        <v>434</v>
+      </c>
+      <c r="K55" t="s">
+        <v>435</v>
+      </c>
+      <c r="L55" t="s">
+        <v>436</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>437</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>438</v>
+      </c>
+      <c r="J56" t="s">
+        <v>439</v>
+      </c>
+      <c r="K56" t="s">
+        <v>440</v>
+      </c>
+      <c r="L56" t="s">
+        <v>441</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>442</v>
+      </c>
+      <c r="O56" t="s">
+        <v>149</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>443</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>444</v>
+      </c>
+      <c r="J57" t="s">
+        <v>445</v>
+      </c>
+      <c r="K57" t="s">
+        <v>446</v>
+      </c>
+      <c r="L57" t="s">
+        <v>447</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>448</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>450</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>451</v>
+      </c>
+      <c r="J58" t="s">
+        <v>452</v>
+      </c>
+      <c r="K58" t="s">
+        <v>453</v>
+      </c>
+      <c r="L58" t="s">
+        <v>454</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>448</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>455</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>456</v>
+      </c>
+      <c r="J59" t="s">
+        <v>457</v>
+      </c>
+      <c r="K59" t="s">
+        <v>458</v>
+      </c>
+      <c r="L59" t="s">
+        <v>459</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>460</v>
+      </c>
+      <c r="O59" t="s">
+        <v>149</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>462</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>463</v>
+      </c>
+      <c r="J60" t="s">
+        <v>464</v>
+      </c>
+      <c r="K60" t="s">
+        <v>465</v>
+      </c>
+      <c r="L60" t="s">
+        <v>466</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>467</v>
+      </c>
+      <c r="O60" t="s">
+        <v>149</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>466</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_46.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_46.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="743">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,102 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/06/2018</t>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r606183933-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>56351</t>
+  </si>
+  <si>
+    <t>1382896</t>
+  </si>
+  <si>
+    <t>606183933</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>Pre-Flight Motel</t>
+  </si>
+  <si>
+    <t>We were flying out of Houston the next morning and this Best Western is close by.  Friendly staff, clean facility, and good location.  A little hard to find, but well worth it. The breakfast was good and we enjoyed it.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Billy P, General Manager at Best Western Plus New Caney Inn &amp; Suites, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>We were flying out of Houston the next morning and this Best Western is close by.  Friendly staff, clean facility, and good location.  A little hard to find, but well worth it. The breakfast was good and we enjoyed it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r601155843-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>601155843</t>
+  </si>
+  <si>
+    <t>07/30/2018</t>
+  </si>
+  <si>
+    <t>Quick trip</t>
+  </si>
+  <si>
+    <t>We stayed here one night because it was close to family. Clean, quiet and nice beds and breakfast. The staff was friendly and accommodating with the late check out. It is a good option if you need a hotel in Porter. Not a convenient location but it worked perfectly for us!MoreShow less</t>
+  </si>
+  <si>
+    <t>Billy P, General Manager at Best Western Plus New Caney Inn &amp; Suites, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>We stayed here one night because it was close to family. Clean, quiet and nice beds and breakfast. The staff was friendly and accommodating with the late check out. It is a good option if you need a hotel in Porter. Not a convenient location but it worked perfectly for us!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r599228321-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>599228321</t>
+  </si>
+  <si>
+    <t>07/24/2018</t>
+  </si>
+  <si>
+    <t>My Go To Hotel in The Area</t>
+  </si>
+  <si>
+    <t>I have stayed at this location several times over the past year for business and this location consistently provides.great service, accommodations, and value.  Lots of new shopping and restaurants in the area now that the freeway project is complete.   MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Billy P, General Manager at Best Western Plus New Caney Inn &amp; Suites, responded to this reviewResponded July 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2018</t>
+  </si>
+  <si>
+    <t>I have stayed at this location several times over the past year for business and this location consistently provides.great service, accommodations, and value.  Lots of new shopping and restaurants in the area now that the freeway project is complete.   More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r583494354-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
   </si>
   <si>
-    <t>56351</t>
-  </si>
-  <si>
-    <t>1382896</t>
-  </si>
-  <si>
     <t>583494354</t>
   </si>
   <si>
@@ -198,9 +282,6 @@
     <t>April 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Billy P, General Manager at Best Western Plus New Caney Inn &amp; Suites, responded to this reviewResponded April 18, 2018</t>
   </si>
   <si>
@@ -237,6 +318,63 @@
     <t>Clean,  rooms, comfortable beds, good hot breakfast. Located by a mall. Only bad thing was figuring out how to get to the property. Roads in are confusing! Other wise everything else was very good. Would stay again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r552137008-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>552137008</t>
+  </si>
+  <si>
+    <t>01/06/2018</t>
+  </si>
+  <si>
+    <t>Good Place</t>
+  </si>
+  <si>
+    <t>I came to New Caney to hang out with a friend for new years eve. Upon my arrival i was greeted nicely and warmly by the young lady that checked me in. I made it to the room and the room was nice and the bathroom was clean and ready. The night clerk was very nice and understanding as i had locked my hotel keys in my room a couple times. My buddy was drunk and the night clerk was very professional in answering questions that my buddy was asking.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Billy P, General Manager at Best Western Plus New Caney Inn &amp; Suites, responded to this reviewResponded January 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 9, 2018</t>
+  </si>
+  <si>
+    <t>I came to New Caney to hang out with a friend for new years eve. Upon my arrival i was greeted nicely and warmly by the young lady that checked me in. I made it to the room and the room was nice and the bathroom was clean and ready. The night clerk was very nice and understanding as i had locked my hotel keys in my room a couple times. My buddy was drunk and the night clerk was very professional in answering questions that my buddy was asking.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r549084195-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>549084195</t>
+  </si>
+  <si>
+    <t>12/24/2017</t>
+  </si>
+  <si>
+    <t>Highly recommend New Caney Best Western Plus</t>
+  </si>
+  <si>
+    <t>Hotel stay was great with a very clean and comfortable room.  It was very quiet overnight which is a real bonus for a location so convenient to Houston freeways.  Breakfast was good and the staff was super!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Billy P, General Manager at Best Western Plus New Caney Inn &amp; Suites, responded to this reviewResponded December 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 26, 2017</t>
+  </si>
+  <si>
+    <t>Hotel stay was great with a very clean and comfortable room.  It was very quiet overnight which is a real bonus for a location so convenient to Houston freeways.  Breakfast was good and the staff was super!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r547709392-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
   </si>
   <si>
@@ -315,6 +453,54 @@
     <t>Our extended family of 15 stayed here for one night after our previously scheduled hotel canceled our reservations due to housing of Hurricane Harvey victims. We had 4 rooms total (8 adults, 7 kids ranging in age from 5-12) and this hotel met our needs. We didn't utilize the pool or workout room. We did enjoy the breakfast prior to driving to Galveston for our cruise departure. In summary, it was a sufficient hotel with no real bells or whistles but it was clean and safe and if the need arose again, there would be nothing stopping us from staying here again. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r540835395-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>540835395</t>
+  </si>
+  <si>
+    <t>11/13/2017</t>
+  </si>
+  <si>
+    <t>Maybe for one night...but not more</t>
+  </si>
+  <si>
+    <t>Housekeeping was the worst ever, if you aren't around to chase them down for needed items: toilet paper, wash clothes, soap or willing to clean your own room and make your bed, go some place else.  And I cannot remember ever staying in a room that did not have a hair drier.  Except for towels, nothing was ever replaced.MoreShow less</t>
+  </si>
+  <si>
+    <t>Billy P, General Manager at Best Western Plus New Caney Inn &amp; Suites, responded to this reviewResponded November 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 18, 2017</t>
+  </si>
+  <si>
+    <t>Housekeeping was the worst ever, if you aren't around to chase them down for needed items: toilet paper, wash clothes, soap or willing to clean your own room and make your bed, go some place else.  And I cannot remember ever staying in a room that did not have a hair drier.  Except for towels, nothing was ever replaced.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r537641649-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>537641649</t>
+  </si>
+  <si>
+    <t>11/01/2017</t>
+  </si>
+  <si>
+    <t>Excellent stay</t>
+  </si>
+  <si>
+    <t>Older hotel that is well cared for. Linens crisp and clean. Towels large and fluffy. Housekeeping gets 5 stars from us. Bkf is normal hot fare. Staff is friendly and professional. Stayed 3 nights.Problem....have to drive thru another hotel's lot to get to this one because of road repairs. Not a big deal.MoreShow less</t>
+  </si>
+  <si>
+    <t>Billy P, Manager at Best Western Plus New Caney Inn &amp; Suites, responded to this reviewResponded November 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 5, 2017</t>
+  </si>
+  <si>
+    <t>Older hotel that is well cared for. Linens crisp and clean. Towels large and fluffy. Housekeeping gets 5 stars from us. Bkf is normal hot fare. Staff is friendly and professional. Stayed 3 nights.Problem....have to drive thru another hotel's lot to get to this one because of road repairs. Not a big deal.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r535942807-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
   </si>
   <si>
@@ -378,6 +564,54 @@
     <t>Quiet rooms with nice decor. A little difficult to get to as you have to drive through another hotels parking lot to get to this hotel. Staff was helpful when explaining the breakfast hours and I told them I would be leaving 2 hours before the start of breakfast they made a grab and go bag for me which was very nice. Nothing close by for meals but within a 10-15 minute drive for fast food or about 20 minutes for nicer dining. One downside was the shower head which pointed straight down from about 7 feet overhead and 2 feet from the front of the tub.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r519225766-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>519225766</t>
+  </si>
+  <si>
+    <t>08/29/2017</t>
+  </si>
+  <si>
+    <t>Great Room, Great Price... exceptional Staff</t>
+  </si>
+  <si>
+    <t>I will definitely stay in this hotel on future trips to the area.  Great Rooms, Reasonable prices and the Staff was Exceptional.  Very personable and helpful!   The fact that I will stay here on future trips is a testament to the overall value.   Had I been dissatisfied I would simple move to another Hotel next time....MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Billy P, General Manager at Best Western Plus New Caney Inn &amp; Suites, responded to this reviewResponded September 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 9, 2017</t>
+  </si>
+  <si>
+    <t>I will definitely stay in this hotel on future trips to the area.  Great Rooms, Reasonable prices and the Staff was Exceptional.  Very personable and helpful!   The fact that I will stay here on future trips is a testament to the overall value.   Had I been dissatisfied I would simple move to another Hotel next time....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r513016216-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>513016216</t>
+  </si>
+  <si>
+    <t>08/14/2017</t>
+  </si>
+  <si>
+    <t>This is our go to place when we come to Kingwood to visit our kids.  Very clean, very comfortable and reasonably priced.  Has all the amenities you would ever want in a hotel and is extremely quiet back off the freeway.  The breakfast is easy and the service of the staff is always friendly and warm.  Never an issue or problem, only relaxed good place to stay when we are in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Billy P, General Manager at Best Western Plus New Caney Inn &amp; Suites, responded to this reviewResponded August 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 16, 2017</t>
+  </si>
+  <si>
+    <t>This is our go to place when we come to Kingwood to visit our kids.  Very clean, very comfortable and reasonably priced.  Has all the amenities you would ever want in a hotel and is extremely quiet back off the freeway.  The breakfast is easy and the service of the staff is always friendly and warm.  Never an issue or problem, only relaxed good place to stay when we are in the area.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r510960109-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
   </si>
   <si>
@@ -441,12 +675,51 @@
     <t>This Best Western PLUS was a great find.   Room looked great, and property is well maintained. Surprised to get this quality experience for such a reasonable rate.  Only wish pool was opened before 10am to take full advantage.MoreShow less</t>
   </si>
   <si>
-    <t>August 2017</t>
-  </si>
-  <si>
     <t>This Best Western PLUS was a great find.   Room looked great, and property is well maintained. Surprised to get this quality experience for such a reasonable rate.  Only wish pool was opened before 10am to take full advantage.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r489268710-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>489268710</t>
+  </si>
+  <si>
+    <t>05/30/2017</t>
+  </si>
+  <si>
+    <t>Very quiet and clean</t>
+  </si>
+  <si>
+    <t>We stayed at the hotel as it was near our son's home.  We were there to attend the graduation of our youngest grandson.  The room was large enough to accommodate the visiting family for quiet conversation and offered a gathering spot before setting out to dinner and the ceremony.  Even though we were next to the ice machine and across the hall from the elevator, our room was exceptionally quiet.  It was well appointed and the included breakfast was very reasonable for this type of facility.  Would stay here again.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r484921148-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>484921148</t>
+  </si>
+  <si>
+    <t>05/17/2017</t>
+  </si>
+  <si>
+    <t>The best hotel out of the 1500 plus hotels that I've stayed at !!</t>
+  </si>
+  <si>
+    <t>Excellent exterior appearance, knowledgeable, professional staff. The rooms are clean and comfortable and have everything to make being away from home as easy as possible! The pool and hot tub are very clean and well lit. The business center is nice and comfortable . The breakfast area is very clean and spacious with a large selection of items. Check-in is a breeze. The surrounding area has lot's of restaurant's and shopping stores. Very quiet and safe location. Thanks, JB.MoreShow less</t>
+  </si>
+  <si>
+    <t>Billy p, General Manager at Best Western Plus New Caney Inn &amp; Suites, responded to this reviewResponded May 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2017</t>
+  </si>
+  <si>
+    <t>Excellent exterior appearance, knowledgeable, professional staff. The rooms are clean and comfortable and have everything to make being away from home as easy as possible! The pool and hot tub are very clean and well lit. The business center is nice and comfortable . The breakfast area is very clean and spacious with a large selection of items. Check-in is a breeze. The surrounding area has lot's of restaurant's and shopping stores. Very quiet and safe location. Thanks, JB.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r482928613-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
   </si>
   <si>
@@ -462,12 +735,6 @@
     <t>Hotel was clean and staff was very friendly.  The bed was comfortable and the breakfast was excellent.  Lots of choices and very filling.  Loved the waffle maker and the bacon was excellent. Towels were big and fluffy and the shower had a wonderful big shower head and great water pressure.</t>
   </si>
   <si>
-    <t>May 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r482344603-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
   </si>
   <si>
@@ -511,6 +778,54 @@
   </si>
   <si>
     <t>The room was in good condition and the A/C worked great.  In this day and age I'm puzzled why their TV programming is not HD.  The signal coming in was, but for some reason the tv wasn't set up to use that signal.  Biggest issue this stay was used soap both by the sink and in the shower.  What the hell?! Oh, and a half empty water bottle by the bed.  Terrible.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r480603348-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>480603348</t>
+  </si>
+  <si>
+    <t>05/01/2017</t>
+  </si>
+  <si>
+    <t>Short stay</t>
+  </si>
+  <si>
+    <t>Nice hotel but TV's are too small and curtains need to cover windows. Got a nice sleep except for the sun coming through the window. Hotel should have easier access. I have stayed there before and will use them again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Billy p, General Manager at Best Western Plus New Caney Inn &amp; Suites, responded to this reviewResponded May 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 2, 2017</t>
+  </si>
+  <si>
+    <t>Nice hotel but TV's are too small and curtains need to cover windows. Got a nice sleep except for the sun coming through the window. Hotel should have easier access. I have stayed there before and will use them again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r476112231-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>476112231</t>
+  </si>
+  <si>
+    <t>04/16/2017</t>
+  </si>
+  <si>
+    <t>Great over all. Will use again.</t>
+  </si>
+  <si>
+    <t>We always use this hotel every year for an anual convention we have. The hotel and rooms are always clean. Nice pool. The rooms are spacious. Is quiet most of the time. No complains. I recommend this hotel for a family ot business trip. MoreShow less</t>
+  </si>
+  <si>
+    <t>Billy p, Manager at Best Western Plus New Caney Inn &amp; Suites, responded to this reviewResponded April 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 20, 2017</t>
+  </si>
+  <si>
+    <t>We always use this hotel every year for an anual convention we have. The hotel and rooms are always clean. Nice pool. The rooms are spacious. Is quiet most of the time. No complains. I recommend this hotel for a family ot business trip. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r466459772-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
@@ -583,6 +898,57 @@
     <t>Nice, clean, new and well operated.  Nothing fancy but nice and clean and seemingly secure.  A wide choice of restaurants are near but none within walking distance.  I would stay there again.  This was a last minute booking and I was pleased with the value and staff.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r446720164-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>446720164</t>
+  </si>
+  <si>
+    <t>12/26/2016</t>
+  </si>
+  <si>
+    <t>Most experienced, professional, knowledgeable staff that I've encountered at any hotel ever!! Customer 4 life</t>
+  </si>
+  <si>
+    <t>I have never experienced one hotel that had it all!! Knowledgeable, professional, curtious staff , great rates , clean rooms , excellent breakfast selection. The hotel manager's name is Billy , he goes above and beyond to help his guests, front desk staff is a reflection of great management. Out of all of the hotels that I've stayed at in the past two decades, this was my best experience to date. I don't normally give reviews but it would be doing a real disservice to the staff at this location to not brag about my excellent experience here. These people made staying in a hotel away from family and friends during xmas pleasurable. There are hundreds of options when choosing a hotel to stay at , but I guarantee if you choose this property, you will get much more than you expect or pay for. Top notch staff from the management to the housekeeping, 10 out 10MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Billy p, General Manager at Best Western Plus New Caney Inn &amp; Suites, responded to this reviewResponded December 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 28, 2016</t>
+  </si>
+  <si>
+    <t>I have never experienced one hotel that had it all!! Knowledgeable, professional, curtious staff , great rates , clean rooms , excellent breakfast selection. The hotel manager's name is Billy , he goes above and beyond to help his guests, front desk staff is a reflection of great management. Out of all of the hotels that I've stayed at in the past two decades, this was my best experience to date. I don't normally give reviews but it would be doing a real disservice to the staff at this location to not brag about my excellent experience here. These people made staying in a hotel away from family and friends during xmas pleasurable. There are hundreds of options when choosing a hotel to stay at , but I guarantee if you choose this property, you will get much more than you expect or pay for. Top notch staff from the management to the housekeeping, 10 out 10More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r441857053-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>441857053</t>
+  </si>
+  <si>
+    <t>12/03/2016</t>
+  </si>
+  <si>
+    <t>out of the way but worth it</t>
+  </si>
+  <si>
+    <t>Hotel is located under the new grand parkway and is a little hard to get to right now.Hotel was clean and quite.people at the desk at check in and check out very nice. next time i am in that part of the south i will stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Billy p, Manager at Best Western Plus New Caney Inn &amp; Suites, responded to this reviewResponded December 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 8, 2016</t>
+  </si>
+  <si>
+    <t>Hotel is located under the new grand parkway and is a little hard to get to right now.Hotel was clean and quite.people at the desk at check in and check out very nice. next time i am in that part of the south i will stay there again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r429047908-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
   </si>
   <si>
@@ -649,6 +1015,60 @@
     <t>First of all the smoke free hotel has a smoking pit next to entry door that forces non smokers to enter non smoking hotel through a cloud of smoke.  Employees were smokers.  Secondly, our room was not cleaned the second night we were there which is okay.  Thirdly but most importantly pets jumped up and licked me in elevator.  The smell was horrible, I thought I was going to throw up in the elevator.  When I told desk clerk, called 800 number and spoke to general manager, no apology, no correction and no refund offered. "This is a pet friendly hotel." was the pat answer.  So pets and smoking are more important than guests.  Pit bulls, smelly dogs in elevator...jumping and licking REALLY!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r389925677-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>389925677</t>
+  </si>
+  <si>
+    <t>07/06/2016</t>
+  </si>
+  <si>
+    <t>Great Place to Stay</t>
+  </si>
+  <si>
+    <t>This should be rated as the #1 Hotel in New Caney. Overall appearance is excellent- from looking outside to the rooms. Attention to detail on cleanliness as well as exceeding customers expectations. Pet friendly. We were impressed from the minute we entered the hotel from the reception at the desk and it just kept getting better during our stay. Rooms are very clean as well as the common areas. Breakfast area clean, good food and kept up by attendant. Pool was great. Definitely would stay here again as well as recommend it to others to stay as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Billy p, General Manager at Best Western Plus New Caney Inn &amp; Suites, responded to this reviewResponded July 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 8, 2016</t>
+  </si>
+  <si>
+    <t>This should be rated as the #1 Hotel in New Caney. Overall appearance is excellent- from looking outside to the rooms. Attention to detail on cleanliness as well as exceeding customers expectations. Pet friendly. We were impressed from the minute we entered the hotel from the reception at the desk and it just kept getting better during our stay. Rooms are very clean as well as the common areas. Breakfast area clean, good food and kept up by attendant. Pool was great. Definitely would stay here again as well as recommend it to others to stay as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r382370623-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>382370623</t>
+  </si>
+  <si>
+    <t>06/13/2016</t>
+  </si>
+  <si>
+    <t>Glad we stopped here to rest!</t>
+  </si>
+  <si>
+    <t>They exceeded our expectations with the quality and comfort of the rooms. The gym was small, there wasn't a lot of equipment to work with, however, you can definitely get your cardio done. We wish all places had a later breakfast hour but other than that, we really enjoyed my stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Billy p, General Manager at Best Western Plus New Caney Inn &amp; Suites, responded to this reviewResponded June 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 16, 2016</t>
+  </si>
+  <si>
+    <t>They exceeded our expectations with the quality and comfort of the rooms. The gym was small, there wasn't a lot of equipment to work with, however, you can definitely get your cardio done. We wish all places had a later breakfast hour but other than that, we really enjoyed my stay.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r381877688-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
   </si>
   <si>
@@ -664,15 +1084,6 @@
     <t>Talk about a place that make you feel welcomed. This place is it. No, this place don't have posh, uber luxurious accommodations or room service but they are friendly and accommodating. We started using them back in 2012 and they still have our votes of the 'Home away from Home' hotel. Check in is fast and check out is faster. Breakfast is hot and enough. Fruit fresh and selection plenty. If you're looking for a hotel to stay at from the Cleveland to Humble area out to even Conroe then this would be, and is, at the TOP of our list. MoreShow less</t>
   </si>
   <si>
-    <t>June 2016</t>
-  </si>
-  <si>
-    <t>Billy p, General Manager at Best Western Plus New Caney Inn &amp; Suites, responded to this reviewResponded June 16, 2016</t>
-  </si>
-  <si>
-    <t>Responded June 16, 2016</t>
-  </si>
-  <si>
     <t>Talk about a place that make you feel welcomed. This place is it. No, this place don't have posh, uber luxurious accommodations or room service but they are friendly and accommodating. We started using them back in 2012 and they still have our votes of the 'Home away from Home' hotel. Check in is fast and check out is faster. Breakfast is hot and enough. Fruit fresh and selection plenty. If you're looking for a hotel to stay at from the Cleveland to Humble area out to even Conroe then this would be, and is, at the TOP of our list. More</t>
   </si>
   <si>
@@ -715,6 +1126,57 @@
     <t>This hotel seems to be relatively new.  It was extremely clean. I would recommend anyone  traveling to the New Caney area to use this hotel.  The staff was very helpful even at 3:30 AM when several of the parents of our ball team checked in.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r355927169-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>355927169</t>
+  </si>
+  <si>
+    <t>03/15/2016</t>
+  </si>
+  <si>
+    <t>A night in Hell</t>
+  </si>
+  <si>
+    <t>The AC was set to no lower than 75 and the room was hot. I went to the front desk twice and had to wait for the clerk to return from a smoking trip outside by the pool. Food was burned at 4:30 am and set the fire alarm off. Guests were in panic. Nobody came to say it was a false alarm. The fridg made a constant noise.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Billy p, Manager at Best Western Plus New Caney Inn &amp; Suites, responded to this reviewResponded March 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 16, 2016</t>
+  </si>
+  <si>
+    <t>The AC was set to no lower than 75 and the room was hot. I went to the front desk twice and had to wait for the clerk to return from a smoking trip outside by the pool. Food was burned at 4:30 am and set the fire alarm off. Guests were in panic. Nobody came to say it was a false alarm. The fridg made a constant noise.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r353627076-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>353627076</t>
+  </si>
+  <si>
+    <t>03/07/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good for the Money </t>
+  </si>
+  <si>
+    <t>Overall it was a pleasant stay.  Breakfast was better first day. Gravy and French toast sticks from hot bar not cooked properly the 2nd day.  The room was clean but they failed to stock the facial tissue both days. Had to ask for a box as my wife had a cold. The toilet lid top was also broken.The manager was responsive when I asked for the tissue and asked my room number.MoreShow less</t>
+  </si>
+  <si>
+    <t>Billy p, Manager at Best Western Plus New Caney Inn &amp; Suites, responded to this reviewResponded March 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 9, 2016</t>
+  </si>
+  <si>
+    <t>Overall it was a pleasant stay.  Breakfast was better first day. Gravy and French toast sticks from hot bar not cooked properly the 2nd day.  The room was clean but they failed to stock the facial tissue both days. Had to ask for a box as my wife had a cold. The toilet lid top was also broken.The manager was responsive when I asked for the tissue and asked my room number.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r348083528-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
   </si>
   <si>
@@ -796,6 +1258,51 @@
     <t>The Best Western had clean comfortable rooms close to highway. Nice places to eat a short drive away. The staff were friendly and front area was very clean. The breakfast was good with enough choices to start your day.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r328301759-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>328301759</t>
+  </si>
+  <si>
+    <t>11/21/2015</t>
+  </si>
+  <si>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>Staff very pleasant and helpful. They helped me correct a mistake I mad with my reservation through the internet. It could have cost me the price of one night but they corrected it for me when they did not have to. Thank You!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Billy p, General Manager at Best Western Plus New Caney Inn &amp; Suites, responded to this reviewResponded November 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 22, 2015</t>
+  </si>
+  <si>
+    <t>Staff very pleasant and helpful. They helped me correct a mistake I mad with my reservation through the internet. It could have cost me the price of one night but they corrected it for me when they did not have to. Thank You!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r327065976-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>327065976</t>
+  </si>
+  <si>
+    <t>11/15/2015</t>
+  </si>
+  <si>
+    <t>WONDERFUL!</t>
+  </si>
+  <si>
+    <t>I absolutely love this hotel. It is nice and comfortable, including the staff! Karen is an amazing employee and is very outgoing and makes you feel comfortable! I love staying here and getting to see her face when I check in, we chat for a long time and she makes me smile! The cleanliness is wonderful and I love that they offer food 24-7 in a little shop. Overall a wonderful place.MoreShow less</t>
+  </si>
+  <si>
+    <t>I absolutely love this hotel. It is nice and comfortable, including the staff! Karen is an amazing employee and is very outgoing and makes you feel comfortable! I love staying here and getting to see her face when I check in, we chat for a long time and she makes me smile! The cleanliness is wonderful and I love that they offer food 24-7 in a little shop. Overall a wonderful place.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r322244941-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
   </si>
   <si>
@@ -814,12 +1321,6 @@
     <t>October 2015</t>
   </si>
   <si>
-    <t>Billy p, General Manager at Best Western Plus New Caney Inn &amp; Suites, responded to this reviewResponded November 22, 2015</t>
-  </si>
-  <si>
-    <t>Responded November 22, 2015</t>
-  </si>
-  <si>
     <t>The hotel was very clean and comfortable.  The hotel actually looks like the pictures.  Will be staying their again, and staff was very nice too.  Bed was very comfortable, had a nice work out room, even had a pool, and breakfast bar.  Rooms were very large in size.More</t>
   </si>
   <si>
@@ -865,6 +1366,33 @@
     <t>Overall a great hotel with a friendly and helpful staff.  This location is conveniently located for my needs to the areas in which I work.  The rooms are nice, comfortable, and well furnished.  This hotel has always been very quiet and the beds are very comfortable.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r311868424-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>311868424</t>
+  </si>
+  <si>
+    <t>09/19/2015</t>
+  </si>
+  <si>
+    <t>Nice hotel, no smoking!</t>
+  </si>
+  <si>
+    <t>nice clean hotel.  North of bush international airport.  No smoking hotel.  I love this.  People are super nice.  No problem getting an early check in.  Good air conditioning.  It is hard to find anything wrong.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r311962087-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>311962087</t>
+  </si>
+  <si>
+    <t>Pretty, quiet hotel</t>
+  </si>
+  <si>
+    <t>I was totally satisfied.  All the staff were professional, helpful and friendly, the rooms and hallways were attractive, the setting was quiet and peaceful.  My only complaint is with the GM "breakfast," but that is not really the hotel's fault.  It is the adulteration of our nation's food supply by unscrupulous, uncaring people.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r289410972-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
   </si>
   <si>
@@ -931,6 +1459,54 @@
     <t>Lovely hotel and very friendly, accommodating staff. The room was clean and the beds very comfortable.  The jaccuzzi in the room was very enjoyable and relaxing.   Access to the hotel property was inconvenient due to highway construction.  Would highly recommend this hotel.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r273732951-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>273732951</t>
+  </si>
+  <si>
+    <t>05/21/2015</t>
+  </si>
+  <si>
+    <t>Very Nice!</t>
+  </si>
+  <si>
+    <t>Very Nice Hotel!  Difficult to get to due to road construction, but worth the trouble.  Breakfast was good.  Workout facilities were good as well.  Overall I enjoyed my stay and I will return for my conference again next year.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Billy p, General Manager at Best Western Plus New Caney Inn &amp; Suites, responded to this reviewResponded June 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2015</t>
+  </si>
+  <si>
+    <t>Very Nice Hotel!  Difficult to get to due to road construction, but worth the trouble.  Breakfast was good.  Workout facilities were good as well.  Overall I enjoyed my stay and I will return for my conference again next year.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r264809411-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>264809411</t>
+  </si>
+  <si>
+    <t>04/09/2015</t>
+  </si>
+  <si>
+    <t>Fair price</t>
+  </si>
+  <si>
+    <t>Excellent customer service!!! Jeff the assistant manager was very helpful. Sadly, the bathroom had some mold in the tub. But everything else was good, breakfast was excellent. And all the staff very helpful and responsible.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Excellent customer service!!! Jeff the assistant manager was very helpful. Sadly, the bathroom had some mold in the tub. But everything else was good, breakfast was excellent. And all the staff very helpful and responsible.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r264380107-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
   </si>
   <si>
@@ -944,15 +1520,6 @@
   </si>
   <si>
     <t>This was an awesome hotel located within 30 minutes of all the locations I needed to be.  The staff were all very friendly and helpful.  I have stayed at this hotel on a number of occasions and it has been consistently good each time.MoreShow less</t>
-  </si>
-  <si>
-    <t>April 2015</t>
-  </si>
-  <si>
-    <t>Billy p, General Manager at Best Western Plus New Caney Inn &amp; Suites, responded to this reviewResponded June 29, 2015</t>
-  </si>
-  <si>
-    <t>Responded June 29, 2015</t>
   </si>
   <si>
     <t>This was an awesome hotel located within 30 minutes of all the locations I needed to be.  The staff were all very friendly and helpful.  I have stayed at this hotel on a number of occasions and it has been consistently good each time.More</t>
@@ -1020,6 +1587,51 @@
     <t>Overall great stay.  Room was comfortable, clean and well maintained.  It was also very quiet.  It was within 30 minutes of my business location and was worth the extra few minutes drive. Freeway access is under construction but still only takes about five minutes to get southbound on I-59.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r250122403-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>250122403</t>
+  </si>
+  <si>
+    <t>01/19/2015</t>
+  </si>
+  <si>
+    <t>Excellent Hotel</t>
+  </si>
+  <si>
+    <t>We have business north of Houston and enjoy staying at the Best Western in New Caney.  The rooms have high ceilings and are very roomy!  The staff is very pleasant and helpful.  We are so glad we found this hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>Billy p, General Manager at Best Western Plus New Caney Inn &amp; Suites, responded to this reviewResponded January 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 26, 2015</t>
+  </si>
+  <si>
+    <t>We have business north of Houston and enjoy staying at the Best Western in New Caney.  The rooms have high ceilings and are very roomy!  The staff is very pleasant and helpful.  We are so glad we found this hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r246742176-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>246742176</t>
+  </si>
+  <si>
+    <t>12/31/2014</t>
+  </si>
+  <si>
+    <t>A true "jewel" in New Caney, TX</t>
+  </si>
+  <si>
+    <t>Upon checking in the internet service for Best Western site was down and the gentleman behind the counter was sooo gracious in letting me get into my room. He didn't have to do that but he remembered my call and I told him that I would book on line. What a sweetie!!! This BW Plus is the nicest one I have ever stayed at. Absolutely beautiful surroundings, just wish the pool had been opened but wrong season for that. The room was spotless, bed was comfy, and had a wonderful nights rest. I think this breakfast was one of the best offered by a motel. A good assortment of pastries, cereals, waffles, and of course "hot" food. The only problem I could see was getting to the motel itself.....but that's not their fault!!! So much construction on the interstate and you really need to follow signs!!! So worth the hassle to get there and I'm sure in the future it'll be a cinch.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Upon checking in the internet service for Best Western site was down and the gentleman behind the counter was sooo gracious in letting me get into my room. He didn't have to do that but he remembered my call and I told him that I would book on line. What a sweetie!!! This BW Plus is the nicest one I have ever stayed at. Absolutely beautiful surroundings, just wish the pool had been opened but wrong season for that. The room was spotless, bed was comfy, and had a wonderful nights rest. I think this breakfast was one of the best offered by a motel. A good assortment of pastries, cereals, waffles, and of course "hot" food. The only problem I could see was getting to the motel itself.....but that's not their fault!!! So much construction on the interstate and you really need to follow signs!!! So worth the hassle to get there and I'm sure in the future it'll be a cinch.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r244492985-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
   </si>
   <si>
@@ -1035,12 +1647,6 @@
     <t>We stayed at this location with our science Olympiad team. There were 15 kids and about 20 adults.  We like to practice the night before we start the competition.  The hotel staff allowed us to use the lobby and breakfast area.  It was great.  We ordered pizza.  The kids were well behaved.  The staff was so nice to our kids.  They treated us like they were part of our team.  The helped us make sure we got our pizza.  let us have some napkins and paper plates to eat on.  They were very very nice to us.  It was a great experience</t>
   </si>
   <si>
-    <t>December 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r240278506-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
   </si>
   <si>
@@ -1077,15 +1683,45 @@
     <t>10/30/2014</t>
   </si>
   <si>
-    <t>Excellent Hotel</t>
-  </si>
-  <si>
     <t>My booking agent found this hotel after a previous hotel had overbooked.  The hotel staff was very friendly, and I was given an upgrade to a nicer room for my trouble.  The hotel was very clean, and the breakfast was excellent.  A bit out of the way if you are at the airport.  I would definately stay here again.</t>
   </si>
   <si>
     <t>October 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r236962596-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>236962596</t>
+  </si>
+  <si>
+    <t>10/29/2014</t>
+  </si>
+  <si>
+    <t>Impressed</t>
+  </si>
+  <si>
+    <t>I'm not a Best Western fan but this location is top notch.  The hotel was clean comfortable, sizeable rooms with high ceilings to give it a bigger feel.   I had a king bed suite which was roomy with a separate sitting area with couch and chair, 2 flat screens  1 by the bed and 1 in the sitting area.  Refrigerator and bar sink were also in the room.  Clean bathroom with same  high ceilings.  Simple breakfast offered in the AM.  Staff was friendly, check in and out was a breeze. Wifi was ok but not the greatest.  Distance to Houston Intercontinetal was about 20 minutes.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r235901406-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>235901406</t>
+  </si>
+  <si>
+    <t>10/23/2014</t>
+  </si>
+  <si>
+    <t>Nice hotel, great location</t>
+  </si>
+  <si>
+    <t>Staff very friendly and helpful.  Had to come to New Caney for a funeral and made reservations at the last minute.  The room rate was good. Not too far from the airport either.  Would stay there again. Close to shopping and retail stores.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r235657983-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
   </si>
   <si>
@@ -1116,9 +1752,6 @@
     <t>I left my hair drier behind, and was told it had been found in my room. When I went to pick it up, they could not find it where it was supposed to have been left for me. No phone call to tell me later that they had found it, as they had also lost my number. I never got my drier back. Not what I expected from a major Hotel chain like Best Western. Or is it the staff you can't trust.</t>
   </si>
   <si>
-    <t>August 2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r218718799-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
   </si>
   <si>
@@ -1140,6 +1773,39 @@
     <t>Hotel staff were friendly and the rooms seemed clean. I guess they were doing a really good job cleaning the carpet because when we went into our room, the footstool was stacked on top of the sitting chair - odd. There were several small things that didn't work like they should. When we turned on the television, we got nothing but static. It took about 5-10 minutes to find a channel that wasn't static, and when we did get a channel, the picture was very poor. The "up" button on the remote didn't work. In the gym, the television and the clock didn't work and the elliptical machine wobbled too much to use. The shower curtain was too short to reach the tub so it did nothing to keep the water off the floor. And - this one is very, very minor but topped off our visit - the trash can in the breakfast room is supposedly "no touch" (the lid opens automatically) but it didn't work do I had to manually touch the trash can while I was preparing my breakfast items.  Overall, it wasn't a terribly unpleasant visit but those minor things all added up so that I probably would choose another hotel the next time I'm in the area.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r218376004-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>218376004</t>
+  </si>
+  <si>
+    <t>07/29/2014</t>
+  </si>
+  <si>
+    <t>Best Western Plus</t>
+  </si>
+  <si>
+    <t>Great location in relationship to Houston Intercontinental.  About 20-25 minute from downtown Houston.  Plenty of restaurants and there's a Wal-Mart everywhere you turn.  It sits right off the freeway but shares the lot with the LaQuinta Inn.  And if you're not sure where you're going, you will miss it because it sits behind the LaQuinta.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r212736544-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>212736544</t>
+  </si>
+  <si>
+    <t>06/29/2014</t>
+  </si>
+  <si>
+    <t>Great service!</t>
+  </si>
+  <si>
+    <t>A very nice staff who helped with every request!  We only stayed one night due to a flight layover but it could not have gone any smoother with the very attentive staff.  They let us grab a bite to eat when we came in late and exhausted and they called a cab for us that arrived the next morning on time.  That location has its act together.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r211840115-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
   </si>
   <si>
@@ -1155,9 +1821,6 @@
     <t>Stayed overnight in New Caney for a basketball tournament. Besides getting to the hotel because of the road construction, this was a very clean hotel and great price. The room was big. Staff were very helpful. Will stay here again if I travel back to New Caney.</t>
   </si>
   <si>
-    <t>June 2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r211143384-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
   </si>
   <si>
@@ -1188,6 +1851,36 @@
     <t>Great place, friendly and helpful staff. Overall I would stay again and recommend it to others. A little out of the way to get to due to contraction but still not bad. Close to town, restaurants and shopping and not far from the Metroplex.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r209568210-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>209568210</t>
+  </si>
+  <si>
+    <t>06/09/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">good overall stay. great staff. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">big open rooms. comfortable and clean. big open bathroom with plenty of counter space at sink. ac/heater unit does a fantastic job. especially in Texas heat/humidity. nice high shower head. lots of hot water with good pressure. all staff knowledgeable of area interests and very professional. super fast and strong wifi. outdoor pool. typical best western breakfast and room amenities. stayed 3 nights and will stay again when in area. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r208633309-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>208633309</t>
+  </si>
+  <si>
+    <t>06/02/2014</t>
+  </si>
+  <si>
+    <t>Very Pleased</t>
+  </si>
+  <si>
+    <t>When you walk in you can tell right away it is new and modern. The staff is very friendly and helpful. The rooms are very beautiful and with having vaulted ceilings must cut out the upstairs noise because I never heard anyone walking around upstairs. And the AC worked great and goes down to at least 52 which I love a cold room when I sleep. Close to restaurants and Wal-Mart down the road.  Thanks, RB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r206920179-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
   </si>
   <si>
@@ -1239,6 +1932,42 @@
     <t>Due to road construction, it's easy to miss the entrance, especially at night (you have to go through the La Quinta parking lot). However, it was more than worth that minor inconvenience. The hotel is very clean, the rooms are spacious and the beds are new.  The mattress was a little firmer than I prefer (even though the website advertises "pillowtop"), but still got a good night's rest.  We were on the 3rd floor and it was very quiet.  Maybe it's just on 3rd floor but it took a little bit of time for hot water to reach lavatory, however once it got there it was fine.  Breakfast was eggs, sausage, gravy and any breads/rolls/cereals you want along with fruit, etc. Breakfast attendant made sure we had everything we needed.  Front desk staff was very courteous.   I would stay there again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r192072163-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>192072163</t>
+  </si>
+  <si>
+    <t>01/25/2014</t>
+  </si>
+  <si>
+    <t>Weather</t>
+  </si>
+  <si>
+    <t>Did not want to travel on ice roads. I work very close to this best western and it was a great choice. Staff was excellent! The breakfast was good and the coffee was excellent. They had fruit, breads, danish, gravy,sausage, eggs and yogurt. Enough to get you going in the morning.</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r191293840-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>191293840</t>
+  </si>
+  <si>
+    <t>01/18/2014</t>
+  </si>
+  <si>
+    <t>Frequent Traveler</t>
+  </si>
+  <si>
+    <t>I travel to this area frequently and always stay at this hotel.  The service is superb.  The staff is very accomodating and the rooms comfortable.  The hotel is in a safe area nestled in a wooded area but with easy access to highway 59.  The parking lot is well lighted and I've never had any security issues.  I have never experienced any noise issues inside or out.</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r187937374-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
   </si>
   <si>
@@ -1254,9 +1983,6 @@
     <t>I've stayed at this particular hotel dozens of times over the years for business, and this is by far the greatest bang for your buck in the area.  Bipin (Billy), the general manager, is super nice, and his staff are all very pleasant and accommodating.  The lobby is beautiful, the rooms are spacious, and the amenities are pretty standard.  The only area that needs a little improvement is the WiFi, which can be spotty.  However, it's free, so all in all there's not much to complain about.  I'd recommend this place to anyone needing to find a quality, affordable hotel in the area.</t>
   </si>
   <si>
-    <t>December 2013</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r185154450-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
   </si>
   <si>
@@ -1290,6 +2016,39 @@
     <t>My daughter had a day visit in Huntsville on a Sunday, but we have an obligation in Baytown on Saturday night, so we decided that we would stay somewhere between the two.  I decided on the Best Western in New Caney.  We arrived very tired late that evening and were given our room quickly and found it to be very clean and even the temperature was set comfortable.  We would definitely stay there again</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r180546072-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>180546072</t>
+  </si>
+  <si>
+    <t>10/10/2013</t>
+  </si>
+  <si>
+    <t>Enjoyed stay</t>
+  </si>
+  <si>
+    <t>This hotel was very quiet, the staff was extremely helpful especially with instructions on getting around construction on the highway. The rooms were clean and the bed was very comfortable. They have a full breakfast and coffee available all day and evening.</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r180138372-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>180138372</t>
+  </si>
+  <si>
+    <t>10/07/2013</t>
+  </si>
+  <si>
+    <t>satisfied</t>
+  </si>
+  <si>
+    <t>The hotel staff and overall comfort of the hotel contributed to a most pleasant stay.  The location of the hotel was convenient since it was next to the highway.  The staff members willingly helped me get directions to local places and assisted me in the business center.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r168258694-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
   </si>
   <si>
@@ -1341,6 +2100,42 @@
     <t>Nice hotel, clean, comfortable. The suites were great, sitting area with a couch, two flatscreen tv's in the room. Beds were comfortable. Adequate parking, friendly staff. I'd stay there again, anytime! Housekeeping did a great job, daily.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r152227428-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>152227428</t>
+  </si>
+  <si>
+    <t>02/15/2013</t>
+  </si>
+  <si>
+    <t>Overall very nice, but beware of the "free" breakfast</t>
+  </si>
+  <si>
+    <t>This is a very clean, comfortable and well-managed hotel.  Our room had a microwave and a refrigerator.  The only complaint was the "free" breakfast - it wasn't very good.  Despite the yucky breakfast, I would stay here again but would eat breakfast a few miles down the road in Porter, Texas where there are several good breakfast eateries.</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r150385291-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>150385291</t>
+  </si>
+  <si>
+    <t>01/23/2013</t>
+  </si>
+  <si>
+    <t>Awsome!!!Great experience</t>
+  </si>
+  <si>
+    <t>Breakfast is very nice,Staff is helpfull ,friendly&amp; knowledgable,Super clean.Only thing entrance you have to thru la quinta .Jeff , billy &amp; lady rita bhagat is very helpful to my kids.Rate is also better than next door la quinta.</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r148384662-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
   </si>
   <si>
@@ -1356,9 +2151,6 @@
     <t>Wifi was nonexistent in room on second floor. Only could access Internet, email at front desk. Room was clean. Ceiling in bathroom above shower/tub had a patch job that was incomplete and gave me the impression of uncleanliness.</t>
   </si>
   <si>
-    <t>December 2012</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r131560503-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
   </si>
   <si>
@@ -1393,6 +2185,39 @@
   </si>
   <si>
     <t>My husband and I stayed here over the 2012 Memorial Day weekend. We selected the hotel based on the weekend special they were having - king non-smoking @$63.99 per night.  In addition to the price, the hotel is also pet friendly which was wonderful.  Not only did we stay there, but so did 3 other members of our family.   Between all of us, we brought 3 dogs.The hotel was very clean, staff was super friendly and helpful, the pool was wonderful and the continental breakfast was good.  The grounds were very well kept.  In all, we were very pleased with our stay and will stay there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r124017977-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>124017977</t>
+  </si>
+  <si>
+    <t>02/02/2012</t>
+  </si>
+  <si>
+    <t>Good Value &amp; Location</t>
+  </si>
+  <si>
+    <t>We stayed 7 nights over New Year at New Caney Inn &amp; Suites &amp; would recommend it as a good quality budget hotel as a base for exploring Houston &amp; Southern Texas. Complimentary breakfast was good, but lacking in fruit juices, and items weren't replaced, re-stocked or re-filled throughout the morning. Good sized pool and hot-tub and easy to find just off I-59.</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r115422477-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
+  </si>
+  <si>
+    <t>115422477</t>
+  </si>
+  <si>
+    <t>07/16/2011</t>
+  </si>
+  <si>
+    <t>Ramsay's best little secret in texas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am currently staying here and have before.This place is like a resort,with the gym and pool with hot tub.and the best parts about it is the personal attention you get from the owners or if you want your privacy wish granted. Any way you slice it (best stay ever). The breakfast is outstanding and also free.Take it from a Ramsay,we know taste </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56351-d1382896-r84461109-Best_Western_Plus_New_Caney_Inn_Suites-New_Caney_Texas.html</t>
@@ -1974,7 +2799,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1983,28 +2808,28 @@
         <v>53</v>
       </c>
       <c r="P2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q2" t="s"/>
       <c r="R2" t="n">
-        <v>4</v>
-      </c>
-      <c r="S2" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s"/>
-      <c r="X2" t="s"/>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -2020,7 +2845,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -2029,53 +2854,39 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O3" t="s">
-        <v>60</v>
-      </c>
-      <c r="P3" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>5</v>
-      </c>
-      <c r="R3" t="n">
-        <v>5</v>
-      </c>
-      <c r="S3" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -2091,7 +2902,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -2100,25 +2911,25 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -2140,13 +2951,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
@@ -2162,7 +2973,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -2171,53 +2982,49 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="P5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
         <v>79</v>
-      </c>
-      <c r="X5" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="6">
@@ -2254,13 +3061,13 @@
         <v>86</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="O6" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -2325,31 +3132,41 @@
         <v>95</v>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
-      <c r="S7" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="X7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Y7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8">
@@ -2365,7 +3182,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -2374,37 +3191,37 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="P8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
@@ -2414,13 +3231,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="X8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Y8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9">
@@ -2436,7 +3253,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -2445,53 +3262,53 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="K9" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="L9" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="O9" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="P9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="X9" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="Y9" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
@@ -2507,7 +3324,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2516,25 +3333,25 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="J10" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="K10" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="L10" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="O10" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -2543,26 +3360,26 @@
         <v>5</v>
       </c>
       <c r="R10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="X10" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="Y10" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11">
@@ -2578,7 +3395,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2587,43 +3404,53 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="J11" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="K11" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="L11" t="s">
+        <v>132</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
         <v>124</v>
       </c>
-      <c r="M11" t="n">
-        <v>5</v>
-      </c>
-      <c r="N11" t="s">
-        <v>125</v>
-      </c>
       <c r="O11" t="s">
-        <v>53</v>
-      </c>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="X11" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="Y11" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12">
@@ -2639,7 +3466,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2648,53 +3475,43 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="J12" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="K12" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="L12" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O12" t="s">
-        <v>60</v>
-      </c>
-      <c r="P12" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>5</v>
-      </c>
-      <c r="R12" t="n">
-        <v>5</v>
-      </c>
-      <c r="S12" t="n">
-        <v>5</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>5</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="X12" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="Y12" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13">
@@ -2710,7 +3527,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2719,53 +3536,53 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="J13" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="K13" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="L13" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="O13" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="P13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="X13" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="Y13" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14">
@@ -2781,7 +3598,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2790,49 +3607,43 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="J14" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="K14" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="L14" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="O14" t="s">
-        <v>149</v>
-      </c>
-      <c r="P14" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>5</v>
-      </c>
-      <c r="R14" t="n">
-        <v>4</v>
-      </c>
-      <c r="S14" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>5</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
+      <c r="W14" t="s">
+        <v>158</v>
+      </c>
+      <c r="X14" t="s">
+        <v>159</v>
+      </c>
       <c r="Y14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15">
@@ -2848,7 +3659,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2857,31 +3668,31 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="J15" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="K15" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="L15" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="O15" t="s">
-        <v>149</v>
+        <v>81</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
       </c>
       <c r="Q15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R15" t="n">
         <v>5</v>
@@ -2897,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="X15" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="Y15" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16">
@@ -2919,7 +3730,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2928,25 +3739,25 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="J16" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K16" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="L16" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="O16" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="P16" t="n">
         <v>3</v>
@@ -2958,7 +3769,7 @@
         <v>3</v>
       </c>
       <c r="S16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
@@ -2968,13 +3779,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="X16" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="Y16" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17">
@@ -2990,7 +3801,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2999,39 +3810,53 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
+        <v>176</v>
+      </c>
+      <c r="J17" t="s">
+        <v>177</v>
+      </c>
+      <c r="K17" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" t="s">
+        <v>178</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
         <v>166</v>
       </c>
-      <c r="J17" t="s">
-        <v>167</v>
-      </c>
-      <c r="K17" t="s">
-        <v>168</v>
-      </c>
-      <c r="L17" t="s">
-        <v>169</v>
-      </c>
-      <c r="M17" t="n">
-        <v>4</v>
-      </c>
-      <c r="N17" t="s">
-        <v>170</v>
-      </c>
       <c r="O17" t="s">
-        <v>149</v>
-      </c>
-      <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
-      <c r="R17" t="s"/>
-      <c r="S17" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>179</v>
+      </c>
+      <c r="X17" t="s">
+        <v>180</v>
+      </c>
       <c r="Y17" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18">
@@ -3047,7 +3872,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -3056,49 +3881,53 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="J18" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="K18" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="L18" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="P18" t="n">
         <v>4</v>
       </c>
       <c r="Q18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
+      <c r="W18" t="s">
+        <v>188</v>
+      </c>
+      <c r="X18" t="s">
+        <v>189</v>
+      </c>
       <c r="Y18" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19">
@@ -3114,7 +3943,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -3123,53 +3952,53 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="J19" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="K19" t="s">
-        <v>181</v>
+        <v>10</v>
       </c>
       <c r="L19" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="O19" t="s">
         <v>53</v>
       </c>
       <c r="P19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="X19" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="Y19" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20">
@@ -3185,7 +4014,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -3194,53 +4023,43 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="J20" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="K20" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="L20" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="O20" t="s">
-        <v>149</v>
-      </c>
-      <c r="P20" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>5</v>
-      </c>
-      <c r="R20" t="n">
-        <v>5</v>
-      </c>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="X20" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="Y20" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21">
@@ -3256,7 +4075,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -3265,25 +4084,25 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="J21" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="K21" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="L21" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -3305,13 +4124,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="X21" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="Y21" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22">
@@ -3327,7 +4146,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -3336,45 +4155,53 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="J22" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="K22" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="L22" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="O22" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="P22" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q22" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
       <c r="R22" t="n">
-        <v>1</v>
-      </c>
-      <c r="S22" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
+      <c r="W22" t="s">
+        <v>212</v>
+      </c>
+      <c r="X22" t="s">
+        <v>205</v>
+      </c>
       <c r="Y22" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23">
@@ -3390,7 +4217,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3399,43 +4226,49 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="J23" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="K23" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="L23" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="O23" t="s">
-        <v>149</v>
-      </c>
-      <c r="P23" t="s"/>
-      <c r="Q23" t="s"/>
-      <c r="R23" t="s"/>
-      <c r="S23" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
       <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s">
-        <v>215</v>
-      </c>
-      <c r="X23" t="s">
-        <v>216</v>
-      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24">
@@ -3451,7 +4284,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3460,51 +4293,43 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="J24" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="K24" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="L24" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
-      </c>
-      <c r="P24" t="n">
-        <v>5</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
-      <c r="R24" t="n">
-        <v>5</v>
-      </c>
-      <c r="S24" t="n">
-        <v>5</v>
-      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>5</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="X24" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="Y24" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25">
@@ -3520,37 +4345,37 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
+        <v>234</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>235</v>
+      </c>
+      <c r="J25" t="s">
+        <v>236</v>
+      </c>
+      <c r="K25" t="s">
+        <v>237</v>
+      </c>
+      <c r="L25" t="s">
+        <v>238</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
         <v>225</v>
-      </c>
-      <c r="G25" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" t="s">
-        <v>226</v>
-      </c>
-      <c r="J25" t="s">
-        <v>227</v>
-      </c>
-      <c r="K25" t="s">
-        <v>228</v>
-      </c>
-      <c r="L25" t="s">
-        <v>229</v>
-      </c>
-      <c r="M25" t="n">
-        <v>5</v>
-      </c>
-      <c r="N25" t="s">
-        <v>223</v>
       </c>
       <c r="O25" t="s">
         <v>53</v>
       </c>
       <c r="P25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q25" t="n">
         <v>5</v>
@@ -3568,14 +4393,10 @@
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s">
-        <v>215</v>
-      </c>
-      <c r="X25" t="s">
-        <v>216</v>
-      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26">
@@ -3591,7 +4412,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3600,34 +4421,34 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="J26" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="K26" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="L26" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="O26" t="s">
         <v>53</v>
       </c>
       <c r="P26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q26" t="n">
         <v>4</v>
       </c>
       <c r="R26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3640,13 +4461,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="X26" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="Y26" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27">
@@ -3662,7 +4483,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3671,53 +4492,53 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="J27" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="K27" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="L27" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="O27" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="P27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="X27" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="Y27" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28">
@@ -3733,7 +4554,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3742,43 +4563,53 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="J28" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="K28" t="s">
+        <v>257</v>
+      </c>
+      <c r="L28" t="s">
+        <v>258</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
         <v>252</v>
       </c>
-      <c r="L28" t="s">
-        <v>253</v>
-      </c>
-      <c r="M28" t="n">
-        <v>4</v>
-      </c>
-      <c r="N28" t="s">
-        <v>254</v>
-      </c>
       <c r="O28" t="s">
-        <v>53</v>
-      </c>
-      <c r="P28" t="s"/>
-      <c r="Q28" t="s"/>
-      <c r="R28" t="s"/>
-      <c r="S28" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
       <c r="T28" t="s"/>
-      <c r="U28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="X28" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Y28" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29">
@@ -3794,7 +4625,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3803,25 +4634,25 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="J29" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="K29" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="L29" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="O29" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -3837,19 +4668,19 @@
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="X29" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Y29" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30">
@@ -3865,7 +4696,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3874,49 +4705,39 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="J30" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="K30" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="L30" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="O30" t="s">
-        <v>60</v>
-      </c>
-      <c r="P30" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>3</v>
-      </c>
-      <c r="R30" t="n">
-        <v>3</v>
-      </c>
-      <c r="S30" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>1</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="31">
@@ -3932,7 +4753,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3941,53 +4762,49 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="J31" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="K31" t="s">
+        <v>280</v>
+      </c>
+      <c r="L31" t="s">
+        <v>281</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
         <v>275</v>
       </c>
-      <c r="L31" t="s">
-        <v>276</v>
-      </c>
-      <c r="M31" t="n">
-        <v>5</v>
-      </c>
-      <c r="N31" t="s">
-        <v>277</v>
-      </c>
       <c r="O31" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="P31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s">
-        <v>278</v>
-      </c>
-      <c r="X31" t="s">
-        <v>279</v>
-      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32">
@@ -4003,7 +4820,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -4012,53 +4829,53 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="J32" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K32" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L32" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="O32" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="P32" t="n">
         <v>4</v>
       </c>
       <c r="Q32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="X32" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Y32" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33">
@@ -4074,7 +4891,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -4083,39 +4900,53 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="J33" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K33" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L33" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M33" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="O33" t="s">
-        <v>60</v>
-      </c>
-      <c r="P33" t="s"/>
-      <c r="Q33" t="s"/>
-      <c r="R33" t="s"/>
-      <c r="S33" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
       <c r="T33" t="s"/>
-      <c r="U33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
+      <c r="W33" t="s">
+        <v>298</v>
+      </c>
+      <c r="X33" t="s">
+        <v>299</v>
+      </c>
       <c r="Y33" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="34">
@@ -4131,7 +4962,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -4140,25 +4971,25 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
+        <v>302</v>
+      </c>
+      <c r="J34" t="s">
+        <v>303</v>
+      </c>
+      <c r="K34" t="s">
+        <v>304</v>
+      </c>
+      <c r="L34" t="s">
+        <v>305</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
         <v>297</v>
       </c>
-      <c r="J34" t="s">
-        <v>292</v>
-      </c>
-      <c r="K34" t="s">
-        <v>298</v>
-      </c>
-      <c r="L34" t="s">
-        <v>299</v>
-      </c>
-      <c r="M34" t="n">
-        <v>5</v>
-      </c>
-      <c r="N34" t="s">
-        <v>295</v>
-      </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -4180,13 +5011,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="X34" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="Y34" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="35">
@@ -4202,7 +5033,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -4211,28 +5042,28 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="J35" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="K35" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="L35" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="M35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="O35" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q35" t="n">
         <v>5</v>
@@ -4251,13 +5082,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="X35" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="Y35" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36">
@@ -4273,7 +5104,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -4282,31 +5113,35 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="J36" t="s">
+        <v>320</v>
+      </c>
+      <c r="K36" t="s">
+        <v>321</v>
+      </c>
+      <c r="L36" t="s">
+        <v>322</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
         <v>314</v>
       </c>
-      <c r="K36" t="s">
-        <v>315</v>
-      </c>
-      <c r="L36" t="s">
-        <v>316</v>
-      </c>
-      <c r="M36" t="n">
-        <v>5</v>
-      </c>
-      <c r="N36" t="s">
-        <v>317</v>
-      </c>
       <c r="O36" t="s">
-        <v>149</v>
-      </c>
-      <c r="P36" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
       <c r="Q36" t="n">
         <v>5</v>
       </c>
-      <c r="R36" t="s"/>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
       <c r="S36" t="n">
         <v>5</v>
       </c>
@@ -4318,13 +5153,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="X36" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="Y36" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="37">
@@ -4340,7 +5175,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4349,53 +5184,45 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="J37" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="K37" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="L37" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="O37" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="P37" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q37" t="s"/>
       <c r="R37" t="n">
-        <v>5</v>
-      </c>
-      <c r="S37" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s">
-        <v>327</v>
-      </c>
-      <c r="X37" t="s">
-        <v>328</v>
-      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="38">
@@ -4411,7 +5238,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4420,38 +5247,32 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J38" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K38" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L38" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O38" t="s">
-        <v>336</v>
+        <v>81</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
       </c>
-      <c r="Q38" t="n">
-        <v>5</v>
-      </c>
-      <c r="R38" t="n">
-        <v>5</v>
-      </c>
-      <c r="S38" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
         <v>5</v>
@@ -4459,10 +5280,14 @@
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
+      <c r="W38" t="s">
+        <v>337</v>
+      </c>
+      <c r="X38" t="s">
+        <v>338</v>
+      </c>
       <c r="Y38" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="39">
@@ -4478,7 +5303,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4487,34 +5312,34 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="J39" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="K39" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="L39" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="M39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="O39" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="P39" t="n">
         <v>4</v>
       </c>
       <c r="Q39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S39" t="n">
         <v>5</v>
@@ -4527,13 +5352,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="X39" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Y39" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="40">
@@ -4549,7 +5374,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4558,43 +5383,43 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="J40" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="K40" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="L40" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="O40" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="P40" t="s"/>
-      <c r="Q40" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q40" t="s"/>
       <c r="R40" t="s"/>
       <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>5</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
+      <c r="W40" t="s">
+        <v>346</v>
+      </c>
+      <c r="X40" t="s">
+        <v>347</v>
+      </c>
       <c r="Y40" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="41">
@@ -4610,7 +5435,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4619,49 +5444,51 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="J41" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="K41" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="L41" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="M41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="O41" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="P41" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q41" t="s"/>
       <c r="R41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
+      <c r="W41" t="s">
+        <v>346</v>
+      </c>
+      <c r="X41" t="s">
+        <v>347</v>
+      </c>
       <c r="Y41" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
     </row>
     <row r="42">
@@ -4677,7 +5504,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4686,49 +5513,53 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="J42" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="K42" t="s">
+        <v>365</v>
+      </c>
+      <c r="L42" t="s">
+        <v>366</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
         <v>360</v>
       </c>
-      <c r="L42" t="s">
-        <v>361</v>
-      </c>
-      <c r="M42" t="n">
-        <v>3</v>
-      </c>
-      <c r="N42" t="s">
-        <v>362</v>
-      </c>
       <c r="O42" t="s">
-        <v>336</v>
+        <v>81</v>
       </c>
       <c r="P42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
+      <c r="W42" t="s">
+        <v>346</v>
+      </c>
+      <c r="X42" t="s">
+        <v>347</v>
+      </c>
       <c r="Y42" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
     </row>
     <row r="43">
@@ -4744,7 +5575,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4753,43 +5584,53 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="J43" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="K43" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="L43" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="M43" t="n">
         <v>2</v>
       </c>
       <c r="N43" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="O43" t="s">
-        <v>149</v>
-      </c>
-      <c r="P43" t="s"/>
-      <c r="Q43" t="s"/>
-      <c r="R43" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
       <c r="S43" t="n">
         <v>4</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
+      <c r="W43" t="s">
+        <v>374</v>
+      </c>
+      <c r="X43" t="s">
+        <v>375</v>
+      </c>
       <c r="Y43" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
     </row>
     <row r="44">
@@ -4805,7 +5646,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4814,49 +5655,43 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="J44" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="K44" t="s">
+        <v>380</v>
+      </c>
+      <c r="L44" t="s">
+        <v>381</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
         <v>373</v>
       </c>
-      <c r="L44" t="s">
-        <v>374</v>
-      </c>
-      <c r="M44" t="n">
-        <v>5</v>
-      </c>
-      <c r="N44" t="s">
-        <v>375</v>
-      </c>
       <c r="O44" t="s">
-        <v>53</v>
-      </c>
-      <c r="P44" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>5</v>
-      </c>
-      <c r="R44" t="n">
-        <v>2</v>
-      </c>
-      <c r="S44" t="n">
-        <v>5</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
-      <c r="U44" t="n">
-        <v>5</v>
-      </c>
+      <c r="U44" t="s"/>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
+      <c r="W44" t="s">
+        <v>382</v>
+      </c>
+      <c r="X44" t="s">
+        <v>383</v>
+      </c>
       <c r="Y44" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
     </row>
     <row r="45">
@@ -4872,7 +5707,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4881,47 +5716,53 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="J45" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="K45" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="L45" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="M45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="O45" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="P45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S45" t="n">
         <v>5</v>
       </c>
       <c r="T45" t="s"/>
-      <c r="U45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
+      <c r="W45" t="s">
+        <v>391</v>
+      </c>
+      <c r="X45" t="s">
+        <v>392</v>
+      </c>
       <c r="Y45" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
     </row>
     <row r="46">
@@ -4937,7 +5778,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4946,34 +5787,34 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="J46" t="s">
-        <v>378</v>
+        <v>396</v>
       </c>
       <c r="K46" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="L46" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="M46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>375</v>
+        <v>399</v>
       </c>
       <c r="O46" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
       </c>
       <c r="Q46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S46" t="n">
         <v>5</v>
@@ -4985,10 +5826,14 @@
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
+      <c r="W46" t="s">
+        <v>400</v>
+      </c>
+      <c r="X46" t="s">
+        <v>401</v>
+      </c>
       <c r="Y46" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
     </row>
     <row r="47">
@@ -5004,7 +5849,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -5013,49 +5858,43 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="J47" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="K47" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="L47" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="M47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
-      </c>
-      <c r="P47" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>5</v>
-      </c>
-      <c r="R47" t="n">
-        <v>5</v>
-      </c>
-      <c r="S47" t="n">
-        <v>5</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
-      <c r="U47" t="n">
-        <v>5</v>
-      </c>
+      <c r="U47" t="s"/>
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s"/>
-      <c r="X47" t="s"/>
+      <c r="W47" t="s">
+        <v>409</v>
+      </c>
+      <c r="X47" t="s">
+        <v>410</v>
+      </c>
       <c r="Y47" t="s">
-        <v>390</v>
+        <v>411</v>
       </c>
     </row>
     <row r="48">
@@ -5071,7 +5910,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>392</v>
+        <v>412</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -5080,25 +5919,25 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="J48" t="s">
-        <v>394</v>
+        <v>414</v>
       </c>
       <c r="K48" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="L48" t="s">
-        <v>396</v>
+        <v>416</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>391</v>
+        <v>417</v>
       </c>
       <c r="O48" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -5119,10 +5958,14 @@
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s"/>
-      <c r="X48" t="s"/>
+      <c r="W48" t="s">
+        <v>418</v>
+      </c>
+      <c r="X48" t="s">
+        <v>419</v>
+      </c>
       <c r="Y48" t="s">
-        <v>396</v>
+        <v>420</v>
       </c>
     </row>
     <row r="49">
@@ -5138,7 +5981,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -5147,25 +5990,25 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>398</v>
+        <v>422</v>
       </c>
       <c r="J49" t="s">
-        <v>399</v>
+        <v>423</v>
       </c>
       <c r="K49" t="s">
-        <v>400</v>
+        <v>424</v>
       </c>
       <c r="L49" t="s">
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>342</v>
+        <v>417</v>
       </c>
       <c r="O49" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -5181,15 +6024,19 @@
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s"/>
-      <c r="X49" t="s"/>
+      <c r="W49" t="s">
+        <v>418</v>
+      </c>
+      <c r="X49" t="s">
+        <v>419</v>
+      </c>
       <c r="Y49" t="s">
-        <v>402</v>
+        <v>426</v>
       </c>
     </row>
     <row r="50">
@@ -5205,7 +6052,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>403</v>
+        <v>427</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -5214,47 +6061,53 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="J50" t="s">
-        <v>405</v>
+        <v>429</v>
       </c>
       <c r="K50" t="s">
-        <v>406</v>
+        <v>430</v>
       </c>
       <c r="L50" t="s">
-        <v>407</v>
+        <v>431</v>
       </c>
       <c r="M50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>408</v>
+        <v>432</v>
       </c>
       <c r="O50" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
       </c>
-      <c r="Q50" t="s"/>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
       <c r="R50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S50" t="n">
         <v>5</v>
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s"/>
-      <c r="X50" t="s"/>
+      <c r="W50" t="s">
+        <v>418</v>
+      </c>
+      <c r="X50" t="s">
+        <v>419</v>
+      </c>
       <c r="Y50" t="s">
-        <v>407</v>
+        <v>433</v>
       </c>
     </row>
     <row r="51">
@@ -5270,7 +6123,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>409</v>
+        <v>434</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5279,41 +6132,41 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>410</v>
+        <v>435</v>
       </c>
       <c r="J51" t="s">
-        <v>411</v>
+        <v>436</v>
       </c>
       <c r="K51" t="s">
-        <v>412</v>
+        <v>437</v>
       </c>
       <c r="L51" t="s">
-        <v>413</v>
+        <v>438</v>
       </c>
       <c r="M51" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>414</v>
+        <v>432</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="P51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
@@ -5321,7 +6174,7 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>413</v>
+        <v>438</v>
       </c>
     </row>
     <row r="52">
@@ -5337,7 +6190,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>415</v>
+        <v>439</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5346,25 +6199,25 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>416</v>
+        <v>440</v>
       </c>
       <c r="J52" t="s">
-        <v>417</v>
+        <v>441</v>
       </c>
       <c r="K52" t="s">
-        <v>418</v>
+        <v>442</v>
       </c>
       <c r="L52" t="s">
-        <v>419</v>
+        <v>443</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>414</v>
+        <v>444</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -5385,10 +6238,14 @@
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s"/>
-      <c r="X52" t="s"/>
+      <c r="W52" t="s">
+        <v>445</v>
+      </c>
+      <c r="X52" t="s">
+        <v>446</v>
+      </c>
       <c r="Y52" t="s">
-        <v>419</v>
+        <v>447</v>
       </c>
     </row>
     <row r="53">
@@ -5404,7 +6261,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5413,41 +6270,37 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="J53" t="s">
-        <v>422</v>
+        <v>450</v>
       </c>
       <c r="K53" t="s">
-        <v>423</v>
+        <v>451</v>
       </c>
       <c r="L53" t="s">
-        <v>424</v>
+        <v>452</v>
       </c>
       <c r="M53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
-      </c>
-      <c r="P53" t="n">
-        <v>4</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="P53" t="s"/>
       <c r="Q53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R53" t="n">
-        <v>4</v>
-      </c>
-      <c r="S53" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S53" t="s"/>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
@@ -5455,7 +6308,7 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>424</v>
+        <v>452</v>
       </c>
     </row>
     <row r="54">
@@ -5471,7 +6324,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>426</v>
+        <v>453</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5480,28 +6333,28 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>427</v>
+        <v>454</v>
       </c>
       <c r="J54" t="s">
-        <v>428</v>
+        <v>450</v>
       </c>
       <c r="K54" t="s">
-        <v>429</v>
+        <v>455</v>
       </c>
       <c r="L54" t="s">
-        <v>430</v>
+        <v>456</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="O54" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="P54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q54" t="n">
         <v>5</v>
@@ -5522,7 +6375,7 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>430</v>
+        <v>456</v>
       </c>
     </row>
     <row r="55">
@@ -5538,7 +6391,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>432</v>
+        <v>457</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5547,30 +6400,34 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>433</v>
+        <v>458</v>
       </c>
       <c r="J55" t="s">
-        <v>434</v>
+        <v>459</v>
       </c>
       <c r="K55" t="s">
-        <v>435</v>
+        <v>460</v>
       </c>
       <c r="L55" t="s">
-        <v>436</v>
+        <v>461</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
-      <c r="N55" t="s"/>
-      <c r="O55" t="s"/>
+      <c r="N55" t="s">
+        <v>462</v>
+      </c>
+      <c r="O55" t="s">
+        <v>71</v>
+      </c>
       <c r="P55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q55" t="n">
         <v>5</v>
       </c>
       <c r="R55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S55" t="n">
         <v>5</v>
@@ -5582,10 +6439,14 @@
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="s"/>
-      <c r="X55" t="s"/>
+      <c r="W55" t="s">
+        <v>463</v>
+      </c>
+      <c r="X55" t="s">
+        <v>464</v>
+      </c>
       <c r="Y55" t="s">
-        <v>436</v>
+        <v>465</v>
       </c>
     </row>
     <row r="56">
@@ -5601,7 +6462,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>437</v>
+        <v>466</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5610,47 +6471,39 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>438</v>
+        <v>467</v>
       </c>
       <c r="J56" t="s">
-        <v>439</v>
+        <v>468</v>
       </c>
       <c r="K56" t="s">
-        <v>440</v>
+        <v>469</v>
       </c>
       <c r="L56" t="s">
-        <v>441</v>
+        <v>470</v>
       </c>
       <c r="M56" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N56" t="s">
-        <v>442</v>
+        <v>471</v>
       </c>
       <c r="O56" t="s">
-        <v>149</v>
-      </c>
-      <c r="P56" t="n">
-        <v>4</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
-      <c r="R56" t="n">
-        <v>3</v>
-      </c>
-      <c r="S56" t="n">
-        <v>4</v>
-      </c>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
       <c r="T56" t="s"/>
-      <c r="U56" t="n">
-        <v>3</v>
-      </c>
+      <c r="U56" t="s"/>
       <c r="V56" t="n">
         <v>0</v>
       </c>
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>441</v>
+        <v>470</v>
       </c>
     </row>
     <row r="57">
@@ -5666,7 +6519,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>443</v>
+        <v>472</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5675,25 +6528,25 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>444</v>
+        <v>473</v>
       </c>
       <c r="J57" t="s">
-        <v>445</v>
+        <v>468</v>
       </c>
       <c r="K57" t="s">
-        <v>446</v>
+        <v>474</v>
       </c>
       <c r="L57" t="s">
-        <v>447</v>
+        <v>475</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>448</v>
+        <v>471</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -5702,7 +6555,7 @@
         <v>5</v>
       </c>
       <c r="R57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S57" t="n">
         <v>5</v>
@@ -5714,10 +6567,14 @@
       <c r="V57" t="n">
         <v>0</v>
       </c>
-      <c r="W57" t="s"/>
-      <c r="X57" t="s"/>
+      <c r="W57" t="s">
+        <v>476</v>
+      </c>
+      <c r="X57" t="s">
+        <v>477</v>
+      </c>
       <c r="Y57" t="s">
-        <v>449</v>
+        <v>478</v>
       </c>
     </row>
     <row r="58">
@@ -5733,7 +6590,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>450</v>
+        <v>479</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5742,25 +6599,25 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>451</v>
+        <v>480</v>
       </c>
       <c r="J58" t="s">
-        <v>452</v>
+        <v>481</v>
       </c>
       <c r="K58" t="s">
-        <v>453</v>
+        <v>482</v>
       </c>
       <c r="L58" t="s">
-        <v>454</v>
+        <v>483</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -5769,7 +6626,7 @@
         <v>5</v>
       </c>
       <c r="R58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S58" t="n">
         <v>5</v>
@@ -5781,10 +6638,14 @@
       <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W58" t="s"/>
-      <c r="X58" t="s"/>
+      <c r="W58" t="s">
+        <v>485</v>
+      </c>
+      <c r="X58" t="s">
+        <v>486</v>
+      </c>
       <c r="Y58" t="s">
-        <v>454</v>
+        <v>487</v>
       </c>
     </row>
     <row r="59">
@@ -5800,7 +6661,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>455</v>
+        <v>488</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -5809,25 +6670,25 @@
         <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>456</v>
+        <v>489</v>
       </c>
       <c r="J59" t="s">
-        <v>457</v>
+        <v>490</v>
       </c>
       <c r="K59" t="s">
-        <v>458</v>
+        <v>491</v>
       </c>
       <c r="L59" t="s">
-        <v>459</v>
+        <v>492</v>
       </c>
       <c r="M59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>460</v>
+        <v>493</v>
       </c>
       <c r="O59" t="s">
-        <v>149</v>
+        <v>71</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -5839,7 +6700,7 @@
         <v>5</v>
       </c>
       <c r="S59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T59" t="s"/>
       <c r="U59" t="n">
@@ -5848,10 +6709,14 @@
       <c r="V59" t="n">
         <v>0</v>
       </c>
-      <c r="W59" t="s"/>
-      <c r="X59" t="s"/>
+      <c r="W59" t="s">
+        <v>485</v>
+      </c>
+      <c r="X59" t="s">
+        <v>486</v>
+      </c>
       <c r="Y59" t="s">
-        <v>461</v>
+        <v>494</v>
       </c>
     </row>
     <row r="60">
@@ -5867,7 +6732,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>462</v>
+        <v>495</v>
       </c>
       <c r="G60" t="s">
         <v>46</v>
@@ -5876,25 +6741,25 @@
         <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>463</v>
+        <v>496</v>
       </c>
       <c r="J60" t="s">
-        <v>464</v>
+        <v>497</v>
       </c>
       <c r="K60" t="s">
-        <v>465</v>
+        <v>498</v>
       </c>
       <c r="L60" t="s">
-        <v>466</v>
+        <v>499</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>467</v>
+        <v>493</v>
       </c>
       <c r="O60" t="s">
-        <v>149</v>
+        <v>71</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -5910,15 +6775,2728 @@
       </c>
       <c r="T60" t="s"/>
       <c r="U60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
       </c>
-      <c r="W60" t="s"/>
-      <c r="X60" t="s"/>
+      <c r="W60" t="s">
+        <v>485</v>
+      </c>
+      <c r="X60" t="s">
+        <v>486</v>
+      </c>
       <c r="Y60" t="s">
-        <v>466</v>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>501</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>502</v>
+      </c>
+      <c r="J61" t="s">
+        <v>503</v>
+      </c>
+      <c r="K61" t="s">
+        <v>504</v>
+      </c>
+      <c r="L61" t="s">
+        <v>505</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>506</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="s"/>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>507</v>
+      </c>
+      <c r="X61" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>510</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>511</v>
+      </c>
+      <c r="J62" t="s">
+        <v>512</v>
+      </c>
+      <c r="K62" t="s">
+        <v>513</v>
+      </c>
+      <c r="L62" t="s">
+        <v>514</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>515</v>
+      </c>
+      <c r="O62" t="s">
+        <v>71</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>516</v>
+      </c>
+      <c r="X62" t="s">
+        <v>517</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>519</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>520</v>
+      </c>
+      <c r="J63" t="s">
+        <v>521</v>
+      </c>
+      <c r="K63" t="s">
+        <v>522</v>
+      </c>
+      <c r="L63" t="s">
+        <v>523</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>515</v>
+      </c>
+      <c r="O63" t="s">
+        <v>71</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>524</v>
+      </c>
+      <c r="X63" t="s">
+        <v>525</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>527</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>528</v>
+      </c>
+      <c r="J64" t="s">
+        <v>529</v>
+      </c>
+      <c r="K64" t="s">
+        <v>530</v>
+      </c>
+      <c r="L64" t="s">
+        <v>531</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>532</v>
+      </c>
+      <c r="O64" t="s">
+        <v>71</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>516</v>
+      </c>
+      <c r="X64" t="s">
+        <v>517</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>534</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>535</v>
+      </c>
+      <c r="J65" t="s">
+        <v>536</v>
+      </c>
+      <c r="K65" t="s">
+        <v>537</v>
+      </c>
+      <c r="L65" t="s">
+        <v>538</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>532</v>
+      </c>
+      <c r="O65" t="s">
+        <v>106</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>539</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>540</v>
+      </c>
+      <c r="J66" t="s">
+        <v>541</v>
+      </c>
+      <c r="K66" t="s">
+        <v>542</v>
+      </c>
+      <c r="L66" t="s">
+        <v>543</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>544</v>
+      </c>
+      <c r="O66" t="s">
+        <v>71</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>545</v>
+      </c>
+      <c r="X66" t="s">
+        <v>546</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>548</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>549</v>
+      </c>
+      <c r="J67" t="s">
+        <v>550</v>
+      </c>
+      <c r="K67" t="s">
+        <v>522</v>
+      </c>
+      <c r="L67" t="s">
+        <v>551</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>552</v>
+      </c>
+      <c r="O67" t="s">
+        <v>133</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>553</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>554</v>
+      </c>
+      <c r="J68" t="s">
+        <v>555</v>
+      </c>
+      <c r="K68" t="s">
+        <v>556</v>
+      </c>
+      <c r="L68" t="s">
+        <v>557</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>552</v>
+      </c>
+      <c r="O68" t="s">
+        <v>71</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>558</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>559</v>
+      </c>
+      <c r="J69" t="s">
+        <v>560</v>
+      </c>
+      <c r="K69" t="s">
+        <v>561</v>
+      </c>
+      <c r="L69" t="s">
+        <v>562</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>563</v>
+      </c>
+      <c r="O69" t="s">
+        <v>81</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>564</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>565</v>
+      </c>
+      <c r="J70" t="s">
+        <v>566</v>
+      </c>
+      <c r="K70" t="s">
+        <v>567</v>
+      </c>
+      <c r="L70" t="s">
+        <v>568</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>552</v>
+      </c>
+      <c r="O70" t="s">
+        <v>71</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>569</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>570</v>
+      </c>
+      <c r="J71" t="s">
+        <v>571</v>
+      </c>
+      <c r="K71" t="s">
+        <v>572</v>
+      </c>
+      <c r="L71" t="s">
+        <v>573</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="s">
+        <v>563</v>
+      </c>
+      <c r="O71" t="s">
+        <v>106</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>2</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>3</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>574</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>575</v>
+      </c>
+      <c r="J72" t="s">
+        <v>576</v>
+      </c>
+      <c r="K72" t="s">
+        <v>577</v>
+      </c>
+      <c r="L72" t="s">
+        <v>578</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2</v>
+      </c>
+      <c r="N72" t="s">
+        <v>579</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>581</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>582</v>
+      </c>
+      <c r="J73" t="s">
+        <v>583</v>
+      </c>
+      <c r="K73" t="s">
+        <v>584</v>
+      </c>
+      <c r="L73" t="s">
+        <v>585</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="s">
+        <v>579</v>
+      </c>
+      <c r="O73" t="s">
+        <v>71</v>
+      </c>
+      <c r="P73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>586</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>587</v>
+      </c>
+      <c r="J74" t="s">
+        <v>588</v>
+      </c>
+      <c r="K74" t="s">
+        <v>589</v>
+      </c>
+      <c r="L74" t="s">
+        <v>590</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>591</v>
+      </c>
+      <c r="O74" t="s">
+        <v>71</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>592</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>593</v>
+      </c>
+      <c r="J75" t="s">
+        <v>594</v>
+      </c>
+      <c r="K75" t="s">
+        <v>595</v>
+      </c>
+      <c r="L75" t="s">
+        <v>596</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>591</v>
+      </c>
+      <c r="O75" t="s">
+        <v>81</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>2</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>597</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>598</v>
+      </c>
+      <c r="J76" t="s">
+        <v>599</v>
+      </c>
+      <c r="K76" t="s">
+        <v>600</v>
+      </c>
+      <c r="L76" t="s">
+        <v>601</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="s">
+        <v>591</v>
+      </c>
+      <c r="O76" t="s">
+        <v>71</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>3</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="s"/>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>603</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>604</v>
+      </c>
+      <c r="J77" t="s">
+        <v>599</v>
+      </c>
+      <c r="K77" t="s">
+        <v>605</v>
+      </c>
+      <c r="L77" t="s">
+        <v>606</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>591</v>
+      </c>
+      <c r="O77" t="s">
+        <v>71</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>607</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>608</v>
+      </c>
+      <c r="J78" t="s">
+        <v>609</v>
+      </c>
+      <c r="K78" t="s">
+        <v>610</v>
+      </c>
+      <c r="L78" t="s">
+        <v>611</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>591</v>
+      </c>
+      <c r="O78" t="s">
+        <v>71</v>
+      </c>
+      <c r="P78" t="s"/>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="s"/>
+      <c r="T78" t="s"/>
+      <c r="U78" t="s"/>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>612</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>613</v>
+      </c>
+      <c r="J79" t="s">
+        <v>614</v>
+      </c>
+      <c r="K79" t="s">
+        <v>615</v>
+      </c>
+      <c r="L79" t="s">
+        <v>616</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>591</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>617</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>618</v>
+      </c>
+      <c r="J80" t="s">
+        <v>619</v>
+      </c>
+      <c r="K80" t="s">
+        <v>620</v>
+      </c>
+      <c r="L80" t="s">
+        <v>621</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>622</v>
+      </c>
+      <c r="O80" t="s">
+        <v>81</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>623</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>624</v>
+      </c>
+      <c r="J81" t="s">
+        <v>625</v>
+      </c>
+      <c r="K81" t="s">
+        <v>626</v>
+      </c>
+      <c r="L81" t="s">
+        <v>627</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>622</v>
+      </c>
+      <c r="O81" t="s">
+        <v>71</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>628</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>629</v>
+      </c>
+      <c r="J82" t="s">
+        <v>630</v>
+      </c>
+      <c r="K82" t="s">
+        <v>631</v>
+      </c>
+      <c r="L82" t="s">
+        <v>632</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>544</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>634</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>635</v>
+      </c>
+      <c r="J83" t="s">
+        <v>636</v>
+      </c>
+      <c r="K83" t="s">
+        <v>637</v>
+      </c>
+      <c r="L83" t="s">
+        <v>638</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>639</v>
+      </c>
+      <c r="O83" t="s">
+        <v>133</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>640</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>641</v>
+      </c>
+      <c r="J84" t="s">
+        <v>642</v>
+      </c>
+      <c r="K84" t="s">
+        <v>643</v>
+      </c>
+      <c r="L84" t="s">
+        <v>644</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>645</v>
+      </c>
+      <c r="O84" t="s">
+        <v>71</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>646</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>647</v>
+      </c>
+      <c r="J85" t="s">
+        <v>648</v>
+      </c>
+      <c r="K85" t="s">
+        <v>649</v>
+      </c>
+      <c r="L85" t="s">
+        <v>650</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>645</v>
+      </c>
+      <c r="O85" t="s">
+        <v>71</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>4</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>651</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>652</v>
+      </c>
+      <c r="J86" t="s">
+        <v>653</v>
+      </c>
+      <c r="K86" t="s">
+        <v>654</v>
+      </c>
+      <c r="L86" t="s">
+        <v>655</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>656</v>
+      </c>
+      <c r="O86" t="s">
+        <v>81</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>657</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>658</v>
+      </c>
+      <c r="J87" t="s">
+        <v>659</v>
+      </c>
+      <c r="K87" t="s">
+        <v>660</v>
+      </c>
+      <c r="L87" t="s">
+        <v>661</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>656</v>
+      </c>
+      <c r="O87" t="s">
+        <v>81</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>662</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>663</v>
+      </c>
+      <c r="J88" t="s">
+        <v>664</v>
+      </c>
+      <c r="K88" t="s">
+        <v>665</v>
+      </c>
+      <c r="L88" t="s">
+        <v>666</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>667</v>
+      </c>
+      <c r="O88" t="s">
+        <v>53</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>668</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>669</v>
+      </c>
+      <c r="J89" t="s">
+        <v>670</v>
+      </c>
+      <c r="K89" t="s">
+        <v>671</v>
+      </c>
+      <c r="L89" t="s">
+        <v>672</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>667</v>
+      </c>
+      <c r="O89" t="s">
+        <v>81</v>
+      </c>
+      <c r="P89" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>4</v>
+      </c>
+      <c r="R89" t="n">
+        <v>4</v>
+      </c>
+      <c r="S89" t="n">
+        <v>4</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>4</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>673</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>674</v>
+      </c>
+      <c r="J90" t="s">
+        <v>675</v>
+      </c>
+      <c r="K90" t="s">
+        <v>676</v>
+      </c>
+      <c r="L90" t="s">
+        <v>677</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>678</v>
+      </c>
+      <c r="O90" t="s">
+        <v>81</v>
+      </c>
+      <c r="P90" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>4</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>4</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>679</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>680</v>
+      </c>
+      <c r="J91" t="s">
+        <v>681</v>
+      </c>
+      <c r="K91" t="s">
+        <v>682</v>
+      </c>
+      <c r="L91" t="s">
+        <v>683</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>684</v>
+      </c>
+      <c r="O91" t="s">
+        <v>71</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>685</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>686</v>
+      </c>
+      <c r="J92" t="s">
+        <v>687</v>
+      </c>
+      <c r="K92" t="s">
+        <v>688</v>
+      </c>
+      <c r="L92" t="s">
+        <v>689</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s"/>
+      <c r="O92" t="s"/>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>4</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>690</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>691</v>
+      </c>
+      <c r="J93" t="s">
+        <v>692</v>
+      </c>
+      <c r="K93" t="s">
+        <v>693</v>
+      </c>
+      <c r="L93" t="s">
+        <v>694</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>695</v>
+      </c>
+      <c r="O93" t="s">
+        <v>81</v>
+      </c>
+      <c r="P93" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>4</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>696</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>697</v>
+      </c>
+      <c r="J94" t="s">
+        <v>698</v>
+      </c>
+      <c r="K94" t="s">
+        <v>699</v>
+      </c>
+      <c r="L94" t="s">
+        <v>700</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>701</v>
+      </c>
+      <c r="O94" t="s">
+        <v>81</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>4</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>702</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>703</v>
+      </c>
+      <c r="J95" t="s">
+        <v>704</v>
+      </c>
+      <c r="K95" t="s">
+        <v>705</v>
+      </c>
+      <c r="L95" t="s">
+        <v>706</v>
+      </c>
+      <c r="M95" t="n">
+        <v>3</v>
+      </c>
+      <c r="N95" t="s">
+        <v>701</v>
+      </c>
+      <c r="O95" t="s">
+        <v>53</v>
+      </c>
+      <c r="P95" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q95" t="s"/>
+      <c r="R95" t="n">
+        <v>3</v>
+      </c>
+      <c r="S95" t="n">
+        <v>4</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>3</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>707</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>708</v>
+      </c>
+      <c r="J96" t="s">
+        <v>709</v>
+      </c>
+      <c r="K96" t="s">
+        <v>710</v>
+      </c>
+      <c r="L96" t="s">
+        <v>711</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>712</v>
+      </c>
+      <c r="O96" t="s">
+        <v>81</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>714</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>715</v>
+      </c>
+      <c r="J97" t="s">
+        <v>716</v>
+      </c>
+      <c r="K97" t="s">
+        <v>717</v>
+      </c>
+      <c r="L97" t="s">
+        <v>718</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>712</v>
+      </c>
+      <c r="O97" t="s">
+        <v>81</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>4</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>719</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>720</v>
+      </c>
+      <c r="J98" t="s">
+        <v>721</v>
+      </c>
+      <c r="K98" t="s">
+        <v>722</v>
+      </c>
+      <c r="L98" t="s">
+        <v>723</v>
+      </c>
+      <c r="M98" t="n">
+        <v>3</v>
+      </c>
+      <c r="N98" t="s">
+        <v>724</v>
+      </c>
+      <c r="O98" t="s">
+        <v>53</v>
+      </c>
+      <c r="P98" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>3</v>
+      </c>
+      <c r="R98" t="n">
+        <v>4</v>
+      </c>
+      <c r="S98" t="n">
+        <v>3</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>3</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>725</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>726</v>
+      </c>
+      <c r="J99" t="s">
+        <v>727</v>
+      </c>
+      <c r="K99" t="s">
+        <v>728</v>
+      </c>
+      <c r="L99" t="s">
+        <v>729</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s"/>
+      <c r="O99" t="s"/>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>730</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>731</v>
+      </c>
+      <c r="J100" t="s">
+        <v>732</v>
+      </c>
+      <c r="K100" t="s">
+        <v>733</v>
+      </c>
+      <c r="L100" t="s">
+        <v>734</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>735</v>
+      </c>
+      <c r="O100" t="s">
+        <v>53</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>59137</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>737</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>738</v>
+      </c>
+      <c r="J101" t="s">
+        <v>739</v>
+      </c>
+      <c r="K101" t="s">
+        <v>740</v>
+      </c>
+      <c r="L101" t="s">
+        <v>741</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s">
+        <v>742</v>
+      </c>
+      <c r="O101" t="s">
+        <v>53</v>
+      </c>
+      <c r="P101" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>5</v>
+      </c>
+      <c r="R101" t="n">
+        <v>5</v>
+      </c>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>4</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>741</v>
       </c>
     </row>
   </sheetData>
